--- a/playlist_per_work/duym001ghed01.xlsx
+++ b/playlist_per_work/duym001ghed01.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H156"/>
+  <dimension ref="A1:H157"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -483,19 +483,15 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>#neeringhe</t>
+          <t>#den-trommel-slagher</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Neeringhe</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+          <t>Den Trommel-slagher</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr"/>
       <c r="E2" t="inlineStr"/>
       <c r="F2" t="inlineStr"/>
       <c r="G2" t="inlineStr"/>
@@ -509,19 +505,15 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>#gemeyne-staten</t>
+          <t>#den-vierden-der-borgheren</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Gemeyne Staten</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+          <t>Den vierden der Borgheren</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr"/>
       <c r="E3" t="inlineStr"/>
       <c r="F3" t="inlineStr"/>
       <c r="G3" t="inlineStr"/>
@@ -535,19 +527,15 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>#eerste-der-hoplieden</t>
+          <t>#b</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Eerste der Hoplieden</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+          <t>b</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr"/>
       <c r="E4" t="inlineStr"/>
       <c r="F4" t="inlineStr"/>
       <c r="G4" t="inlineStr"/>
@@ -561,19 +549,15 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>#capiteyn-logier</t>
+          <t>#eerste-der-borghermeester-leest-den-brief</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Capiteyn Logier</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+          <t>Eerste der borghermeester leest den brief</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr"/>
       <c r="E5" t="inlineStr"/>
       <c r="F5" t="inlineStr"/>
       <c r="G5" t="inlineStr"/>
@@ -587,19 +571,15 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>#een-van-de-boeren</t>
+          <t>#soldaet-van-buyten</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Een van de boeren</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+          <t>Soldaet van buyten</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr"/>
       <c r="E6" t="inlineStr"/>
       <c r="F6" t="inlineStr"/>
       <c r="G6" t="inlineStr"/>
@@ -613,19 +593,15 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>#t'ghemeyn-volck</t>
+          <t>#ghemeynte</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>t'Ghemeyn volck</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+          <t>Ghemeynte</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr"/>
       <c r="E7" t="inlineStr"/>
       <c r="F7" t="inlineStr"/>
       <c r="G7" t="inlineStr"/>
@@ -639,19 +615,15 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>#een-der-soldaten-uyt-der-stad</t>
+          <t>#de-soldaet-spreeckt</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Een der Soldaten uyt der Stad</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+          <t>De Soldaet spreeckt</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr"/>
       <c r="E8" t="inlineStr"/>
       <c r="F8" t="inlineStr"/>
       <c r="G8" t="inlineStr"/>
@@ -665,19 +637,15 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>#eenen-pagie</t>
+          <t>#eerste-der-crijchslieden</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Eenen pagie</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+          <t>Eerste der Crijchslieden</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr"/>
       <c r="E9" t="inlineStr"/>
       <c r="F9" t="inlineStr"/>
       <c r="G9" t="inlineStr"/>
@@ -691,19 +659,15 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>#edel-lieden</t>
+          <t>#cassiope</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Edel-lieden</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+          <t>Cassiope</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr"/>
       <c r="E10" t="inlineStr"/>
       <c r="F10" t="inlineStr"/>
       <c r="G10" t="inlineStr"/>
@@ -717,19 +681,15 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>#eerste-der-borghermeester-leest-den-brief</t>
+          <t>#de-bode</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Eerste der borghermeester leest den brief</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+          <t>De Bode</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr"/>
       <c r="E11" t="inlineStr"/>
       <c r="F11" t="inlineStr"/>
       <c r="G11" t="inlineStr"/>
@@ -743,19 +703,15 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>#quaet-regiment</t>
+          <t>#den-derden</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>Quaet regiment</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+          <t>Den Derden</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr"/>
       <c r="E12" t="inlineStr"/>
       <c r="F12" t="inlineStr"/>
       <c r="G12" t="inlineStr"/>
@@ -769,19 +725,15 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>#adriaen-van-borghen</t>
+          <t>#baldeso</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>Adriaen van Borghen</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+          <t>Baldeso</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr"/>
       <c r="E13" t="inlineStr"/>
       <c r="F13" t="inlineStr"/>
       <c r="G13" t="inlineStr"/>
@@ -795,19 +747,15 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>#den-landman</t>
+          <t>#edel-lieden</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>Den Landman</t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+          <t>Edel-lieden</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr"/>
       <c r="E14" t="inlineStr"/>
       <c r="F14" t="inlineStr"/>
       <c r="G14" t="inlineStr"/>
@@ -821,19 +769,15 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>#eerste-der-crijchslieden</t>
+          <t>#derden-der-borgheren</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>Eerste der Crijchslieden</t>
-        </is>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+          <t>Derden der borgheren</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr"/>
       <c r="E15" t="inlineStr"/>
       <c r="F15" t="inlineStr"/>
       <c r="G15" t="inlineStr"/>
@@ -847,19 +791,15 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>#eenen-bode</t>
+          <t>#eenen-pagie</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>Eenen Bode</t>
-        </is>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+          <t>Eenen pagie</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr"/>
       <c r="E16" t="inlineStr"/>
       <c r="F16" t="inlineStr"/>
       <c r="G16" t="inlineStr"/>
@@ -873,19 +813,15 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>#eerste-der-borghermeesteren</t>
+          <t>#capiteyn-lambert</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>Eerste der Borghermeesteren</t>
-        </is>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+          <t>Capiteyn Lambert</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr"/>
       <c r="E17" t="inlineStr"/>
       <c r="F17" t="inlineStr"/>
       <c r="G17" t="inlineStr"/>
@@ -899,19 +835,15 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>#een-soldaet-opt-casteel</t>
+          <t>#'tverplichte-land</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>Een Soldaet opt Casteel</t>
-        </is>
-      </c>
-      <c r="D18" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+          <t>'tVerplichte Land</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr"/>
       <c r="E18" t="inlineStr"/>
       <c r="F18" t="inlineStr"/>
       <c r="G18" t="inlineStr"/>
@@ -925,19 +857,15 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>#de-sergeant</t>
+          <t>#troost-der-schriftueren</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>De Sergeant</t>
-        </is>
-      </c>
-      <c r="D19" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+          <t>Troost der Schriftueren</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr"/>
       <c r="E19" t="inlineStr"/>
       <c r="F19" t="inlineStr"/>
       <c r="G19" t="inlineStr"/>
@@ -951,19 +879,15 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>#ghemeynte</t>
+          <t>#den-jonghen</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>Ghemeynte</t>
-        </is>
-      </c>
-      <c r="D20" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+          <t>Den Jonghen</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr"/>
       <c r="E20" t="inlineStr"/>
       <c r="F20" t="inlineStr"/>
       <c r="G20" t="inlineStr"/>
@@ -977,19 +901,15 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>#den-derden,-comt-uyt-costelijck-ghecleed-met-eenen-ionghen-achter-hem</t>
+          <t>#soldaet-van-binnen</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>Den Derden, comt uyt costelijck ghecleed met eenen Ionghen achter hem</t>
-        </is>
-      </c>
-      <c r="D21" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+          <t>Soldaet van binnen</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr"/>
       <c r="E21" t="inlineStr"/>
       <c r="F21" t="inlineStr"/>
       <c r="G21" t="inlineStr"/>
@@ -1003,19 +923,15 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>#derden,-comt-uyt-ghecleed-als-een-duytsch-lants-knecht</t>
+          <t>#bloed-dorstich-ghemoed</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>Derden, comt uyt ghecleed als een Duytsch Lants-knecht</t>
-        </is>
-      </c>
-      <c r="D22" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+          <t>bloed-dorstich ghemoed</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr"/>
       <c r="E22" t="inlineStr"/>
       <c r="F22" t="inlineStr"/>
       <c r="G22" t="inlineStr"/>
@@ -1029,19 +945,15 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>#tvveede</t>
+          <t>#eerste</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>Tvveede</t>
-        </is>
-      </c>
-      <c r="D23" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+          <t>Eerste</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr"/>
       <c r="E23" t="inlineStr"/>
       <c r="F23" t="inlineStr"/>
       <c r="G23" t="inlineStr"/>
@@ -1055,19 +967,15 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>#de</t>
+          <t>#havicx</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>De</t>
-        </is>
-      </c>
-      <c r="D24" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+          <t>Havicx</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr"/>
       <c r="E24" t="inlineStr"/>
       <c r="F24" t="inlineStr"/>
       <c r="G24" t="inlineStr"/>
@@ -1081,19 +989,15 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>#een-der-hoplieden</t>
+          <t>#quaet-regiment</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>Een der Hoplieden</t>
-        </is>
-      </c>
-      <c r="D25" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+          <t>Quaet regiment</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr"/>
       <c r="E25" t="inlineStr"/>
       <c r="F25" t="inlineStr"/>
       <c r="G25" t="inlineStr"/>
@@ -1107,19 +1011,15 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>#goede-ghemeynte</t>
+          <t>#neeringhe</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>Goede Ghemeynte</t>
-        </is>
-      </c>
-      <c r="D26" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+          <t>Neeringhe</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr"/>
       <c r="E26" t="inlineStr"/>
       <c r="F26" t="inlineStr"/>
       <c r="G26" t="inlineStr"/>
@@ -1133,19 +1033,15 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>#tvveede-der-hoplieden</t>
+          <t>#lambert</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>Tvveede der Hoplieden</t>
-        </is>
-      </c>
-      <c r="D27" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+          <t>Lambert</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr"/>
       <c r="E27" t="inlineStr"/>
       <c r="F27" t="inlineStr"/>
       <c r="G27" t="inlineStr"/>
@@ -1159,19 +1055,15 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>#den-borgher</t>
+          <t>#een-kind</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>Den Borgher</t>
-        </is>
-      </c>
-      <c r="D28" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+          <t>Een Kind</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr"/>
       <c r="E28" t="inlineStr"/>
       <c r="F28" t="inlineStr"/>
       <c r="G28" t="inlineStr"/>
@@ -1185,19 +1077,15 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>#den-hopman</t>
+          <t>#tvveede-der-borgeren</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>Den Hopman</t>
-        </is>
-      </c>
-      <c r="D29" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+          <t>Tvveede der Borgeren</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr"/>
       <c r="E29" t="inlineStr"/>
       <c r="F29" t="inlineStr"/>
       <c r="G29" t="inlineStr"/>
@@ -1211,19 +1099,15 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>#herrogier</t>
+          <t>#tvveede-der-borghermeesteren</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>Herrogier</t>
-        </is>
-      </c>
-      <c r="D30" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+          <t>Tvveede der Borghermeesteren</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr"/>
       <c r="E30" t="inlineStr"/>
       <c r="F30" t="inlineStr"/>
       <c r="G30" t="inlineStr"/>
@@ -1237,19 +1121,15 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>#vander-does</t>
+          <t>#eenen-ionghen</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>Vander Does</t>
-        </is>
-      </c>
-      <c r="D31" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+          <t>Eenen Ionghen</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr"/>
       <c r="E31" t="inlineStr"/>
       <c r="F31" t="inlineStr"/>
       <c r="G31" t="inlineStr"/>
@@ -1263,19 +1143,15 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>#heymelijcken-haed</t>
+          <t>#graeff-philips</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>Heymelijcken-haed</t>
-        </is>
-      </c>
-      <c r="D32" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+          <t>Graeff Philips</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr"/>
       <c r="E32" t="inlineStr"/>
       <c r="F32" t="inlineStr"/>
       <c r="G32" t="inlineStr"/>
@@ -1289,19 +1165,15 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>#adriaen</t>
+          <t>#cepheus</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>Adriaen</t>
-        </is>
-      </c>
-      <c r="D33" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+          <t>Cepheus</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr"/>
       <c r="E33" t="inlineStr"/>
       <c r="F33" t="inlineStr"/>
       <c r="G33" t="inlineStr"/>
@@ -1315,19 +1187,15 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>#vander-does-aende-poorten-vander-stad</t>
+          <t>#de-borghermeester</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>Vander Does aende poorten vander Stad</t>
-        </is>
-      </c>
-      <c r="D34" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+          <t>De borghermeester</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr"/>
       <c r="E34" t="inlineStr"/>
       <c r="F34" t="inlineStr"/>
       <c r="G34" t="inlineStr"/>
@@ -1341,19 +1209,15 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>#baldeso</t>
+          <t>#goeden-crijgh</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>Baldeso</t>
-        </is>
-      </c>
-      <c r="D35" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+          <t>Goeden Crijgh</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr"/>
       <c r="E35" t="inlineStr"/>
       <c r="F35" t="inlineStr"/>
       <c r="G35" t="inlineStr"/>
@@ -1367,19 +1231,15 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>#een-der-borgheren</t>
+          <t>#besluyt-reden-by-den-dicht-stelder</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>Een der borgheren</t>
-        </is>
-      </c>
-      <c r="D36" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+          <t>Besluyt-reden by den Dicht-stelder</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr"/>
       <c r="E36" t="inlineStr"/>
       <c r="F36" t="inlineStr"/>
       <c r="G36" t="inlineStr"/>
@@ -1393,19 +1253,15 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>#lambert</t>
+          <t>#troost-der-schriftueren</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>Lambert</t>
-        </is>
-      </c>
-      <c r="D37" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+          <t>Troost der schriftueren</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr"/>
       <c r="E37" t="inlineStr"/>
       <c r="F37" t="inlineStr"/>
       <c r="G37" t="inlineStr"/>
@@ -1419,19 +1275,15 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>#gheveynsden-peys</t>
+          <t>#besluyt-reden-des-dichtstelders,</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>Gheveynsden peys</t>
-        </is>
-      </c>
-      <c r="D38" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+          <t>Besluyt-reden des Dichtstelders,</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr"/>
       <c r="E38" t="inlineStr"/>
       <c r="F38" t="inlineStr"/>
       <c r="G38" t="inlineStr"/>
@@ -1445,19 +1297,15 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>#ghetrouvven-raed</t>
+          <t>#geerards</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>Ghetrouvven Raed</t>
-        </is>
-      </c>
-      <c r="D39" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+          <t>Geerards</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr"/>
       <c r="E39" t="inlineStr"/>
       <c r="F39" t="inlineStr"/>
       <c r="G39" t="inlineStr"/>
@@ -1471,19 +1319,15 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>#rijckdom</t>
+          <t>#eerste-der-borgheren</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>Rijckdom</t>
-        </is>
-      </c>
-      <c r="D40" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+          <t>Eerste der borgheren</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr"/>
       <c r="E40" t="inlineStr"/>
       <c r="F40" t="inlineStr"/>
       <c r="G40" t="inlineStr"/>
@@ -1497,19 +1341,15 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>#eerste-der-borgheren</t>
+          <t>#den-hopman</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>Eerste der Borgheren</t>
-        </is>
-      </c>
-      <c r="D41" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+          <t>Den Hopman</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr"/>
       <c r="E41" t="inlineStr"/>
       <c r="F41" t="inlineStr"/>
       <c r="G41" t="inlineStr"/>
@@ -1523,19 +1363,15 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>#den-vierden-der-borgheren</t>
+          <t>#den-poeet-oft-dichtstelder-beduydende-t'voorgaende</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>Den vierden der Borgheren</t>
-        </is>
-      </c>
-      <c r="D42" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+          <t>Den Poeet oft Dichtstelder beduydende t'voorgaende</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr"/>
       <c r="E42" t="inlineStr"/>
       <c r="F42" t="inlineStr"/>
       <c r="G42" t="inlineStr"/>
@@ -1549,19 +1385,15 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>#den-trommel-slagher</t>
+          <t>#bloed-dorstich-ghemoed</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>Den Trommel-slagher</t>
-        </is>
-      </c>
-      <c r="D43" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+          <t>Bloed-dorstich ghemoed</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr"/>
       <c r="E43" t="inlineStr"/>
       <c r="F43" t="inlineStr"/>
       <c r="G43" t="inlineStr"/>
@@ -1575,19 +1407,15 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>#de-knecht</t>
+          <t>#de-sergeant</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>De Knecht</t>
-        </is>
-      </c>
-      <c r="D44" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+          <t>De Sergeant</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr"/>
       <c r="E44" t="inlineStr"/>
       <c r="F44" t="inlineStr"/>
       <c r="G44" t="inlineStr"/>
@@ -1601,19 +1429,15 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>#trouvven-raed</t>
+          <t>#een-vande-boeren</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>Trouvven raed</t>
-        </is>
-      </c>
-      <c r="D45" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+          <t>Een vande Boeren</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr"/>
       <c r="E45" t="inlineStr"/>
       <c r="F45" t="inlineStr"/>
       <c r="G45" t="inlineStr"/>
@@ -1627,19 +1451,15 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>#de-soldaet-spreeckt</t>
+          <t>#den-coopman</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>De Soldaet spreeckt</t>
-        </is>
-      </c>
-      <c r="D46" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+          <t>Den Coopman</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr"/>
       <c r="E46" t="inlineStr"/>
       <c r="F46" t="inlineStr"/>
       <c r="G46" t="inlineStr"/>
@@ -1653,19 +1473,15 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>#dander-kind</t>
+          <t>#eerste-der-borghermeesteren</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>Dander Kind</t>
-        </is>
-      </c>
-      <c r="D47" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+          <t>Eerste der borghermeesteren</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr"/>
       <c r="E47" t="inlineStr"/>
       <c r="F47" t="inlineStr"/>
       <c r="G47" t="inlineStr"/>
@@ -1679,19 +1495,15 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>#antvverpia</t>
+          <t>#tweede-der-borgheren</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>Antvverpia</t>
-        </is>
-      </c>
-      <c r="D48" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+          <t>Tweede der borgheren</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr"/>
       <c r="E48" t="inlineStr"/>
       <c r="F48" t="inlineStr"/>
       <c r="G48" t="inlineStr"/>
@@ -1705,19 +1517,15 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>#een-der-soldaten-roept-voor-en-d'ander-al-nae</t>
+          <t>#tvveede-der-borgeren</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>Een der Soldaten roept voor en d'ander al nae</t>
-        </is>
-      </c>
-      <c r="D49" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+          <t>Tvveede der borgeren</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr"/>
       <c r="E49" t="inlineStr"/>
       <c r="F49" t="inlineStr"/>
       <c r="G49" t="inlineStr"/>
@@ -1731,19 +1539,15 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>#derden</t>
+          <t>#de-prins</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>Derden</t>
-        </is>
-      </c>
-      <c r="D50" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+          <t>De Prins</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr"/>
       <c r="E50" t="inlineStr"/>
       <c r="F50" t="inlineStr"/>
       <c r="G50" t="inlineStr"/>
@@ -1757,19 +1561,15 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>#cassiope</t>
+          <t>#de-borgermeester</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>Cassiope</t>
-        </is>
-      </c>
-      <c r="D51" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+          <t>De Borgermeester</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr"/>
       <c r="E51" t="inlineStr"/>
       <c r="F51" t="inlineStr"/>
       <c r="G51" t="inlineStr"/>
@@ -1783,19 +1583,15 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>#alonso-te-lammen</t>
+          <t>#de-vrijheyd</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>Alonso te Lammen</t>
-        </is>
-      </c>
-      <c r="D52" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+          <t>De Vrijheyd</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr"/>
       <c r="E52" t="inlineStr"/>
       <c r="F52" t="inlineStr"/>
       <c r="G52" t="inlineStr"/>
@@ -1809,19 +1605,15 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>#eerste</t>
+          <t>#graeff-mauritz</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>Eerste</t>
-        </is>
-      </c>
-      <c r="D53" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+          <t>Graeff Mauritz</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr"/>
       <c r="E53" t="inlineStr"/>
       <c r="F53" t="inlineStr"/>
       <c r="G53" t="inlineStr"/>
@@ -1835,19 +1627,15 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>#besluyt-reden-des-dichtstelders,</t>
+          <t>#t'verplichte-land</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>Besluyt-reden des Dichtstelders,</t>
-        </is>
-      </c>
-      <c r="D54" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+          <t>t'Verplichte Land</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr"/>
       <c r="E54" t="inlineStr"/>
       <c r="F54" t="inlineStr"/>
       <c r="G54" t="inlineStr"/>
@@ -1861,19 +1649,15 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>#een-der-bootsghesellen</t>
+          <t>#bode</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>Een der bootsghesellen</t>
-        </is>
-      </c>
-      <c r="D55" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+          <t>Bode</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr"/>
       <c r="E55" t="inlineStr"/>
       <c r="F55" t="inlineStr"/>
       <c r="G55" t="inlineStr"/>
@@ -1887,19 +1671,15 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>#de-vrijheyd</t>
+          <t>#eerste-der-borghermeesteren</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>De Vrijheyd</t>
-        </is>
-      </c>
-      <c r="D56" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+          <t>Eerste der Borghermeesteren</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr"/>
       <c r="E56" t="inlineStr"/>
       <c r="F56" t="inlineStr"/>
       <c r="G56" t="inlineStr"/>
@@ -1913,19 +1693,15 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>#carlon-inde-schants-by-boshuysen</t>
+          <t>#alonso-lopes-inde-schants-van-lammen</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>Carlon inde Schants by Boshuysen</t>
-        </is>
-      </c>
-      <c r="D57" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+          <t>Alonso Lopes inde Schants van Lammen</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr"/>
       <c r="E57" t="inlineStr"/>
       <c r="F57" t="inlineStr"/>
       <c r="G57" t="inlineStr"/>
@@ -1939,19 +1715,15 @@
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>#schoffierighe-begheerte</t>
+          <t>#den-boer</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>Schoffierighe begheerte</t>
-        </is>
-      </c>
-      <c r="D58" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+          <t>Den Boer</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr"/>
       <c r="E58" t="inlineStr"/>
       <c r="F58" t="inlineStr"/>
       <c r="G58" t="inlineStr"/>
@@ -1965,19 +1737,15 @@
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>#besluyt-reden-by-den-dicht-stelder</t>
+          <t>#antvverpia</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>Besluyt-reden by den dicht-stelder</t>
-        </is>
-      </c>
-      <c r="D59" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+          <t>Antvverpia</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr"/>
       <c r="E59" t="inlineStr"/>
       <c r="F59" t="inlineStr"/>
       <c r="G59" t="inlineStr"/>
@@ -1991,19 +1759,15 @@
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>#den-hoofmeester</t>
+          <t>#trouvven-raed</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>Den Hoofmeester</t>
-        </is>
-      </c>
-      <c r="D60" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+          <t>Trouvven raed</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr"/>
       <c r="E60" t="inlineStr"/>
       <c r="F60" t="inlineStr"/>
       <c r="G60" t="inlineStr"/>
@@ -2017,19 +1781,15 @@
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>#tvveede-der-borgheren</t>
+          <t>#eersten</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>Tvveede der Borgheren</t>
-        </is>
-      </c>
-      <c r="D61" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+          <t>Eersten</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr"/>
       <c r="E61" t="inlineStr"/>
       <c r="F61" t="inlineStr"/>
       <c r="G61" t="inlineStr"/>
@@ -2043,19 +1803,15 @@
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>#carion</t>
+          <t>#ghemeen-staten</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>Carion</t>
-        </is>
-      </c>
-      <c r="D62" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+          <t>Ghemeen Staten</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr"/>
       <c r="E62" t="inlineStr"/>
       <c r="F62" t="inlineStr"/>
       <c r="G62" t="inlineStr"/>
@@ -2069,19 +1825,15 @@
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>#een-van-de-draghers</t>
+          <t>#een-der-borgeren</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>Een van de Draghers</t>
-        </is>
-      </c>
-      <c r="D63" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+          <t>Een der Borgeren</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr"/>
       <c r="E63" t="inlineStr"/>
       <c r="F63" t="inlineStr"/>
       <c r="G63" t="inlineStr"/>
@@ -2095,19 +1847,15 @@
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>#soldaet-van-binnen</t>
+          <t>#adriaen</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>Soldaet van binnen</t>
-        </is>
-      </c>
-      <c r="D64" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+          <t>Adriaen</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr"/>
       <c r="E64" t="inlineStr"/>
       <c r="F64" t="inlineStr"/>
       <c r="G64" t="inlineStr"/>
@@ -2121,19 +1869,15 @@
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>#goeden-crijgh</t>
+          <t>#een-van-de-boeren</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>Goeden Crijgh</t>
-        </is>
-      </c>
-      <c r="D65" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+          <t>Een van de boeren</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr"/>
       <c r="E65" t="inlineStr"/>
       <c r="F65" t="inlineStr"/>
       <c r="G65" t="inlineStr"/>
@@ -2147,19 +1891,15 @@
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>#schaldis</t>
+          <t>#capiteyn-logier</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>Schaldis</t>
-        </is>
-      </c>
-      <c r="D66" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+          <t>Capiteyn Logier</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr"/>
       <c r="E66" t="inlineStr"/>
       <c r="F66" t="inlineStr"/>
       <c r="G66" t="inlineStr"/>
@@ -2173,19 +1913,15 @@
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>#rithmeester</t>
+          <t>#gheveynsden-peys</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>Rithmeester</t>
-        </is>
-      </c>
-      <c r="D67" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+          <t>Gheveynsden peys</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr"/>
       <c r="E67" t="inlineStr"/>
       <c r="F67" t="inlineStr"/>
       <c r="G67" t="inlineStr"/>
@@ -2199,19 +1935,15 @@
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>#d'ouerste-vande-vvacht</t>
+          <t>#de-borghermeester</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>d'Ouerste vande VVacht</t>
-        </is>
-      </c>
-      <c r="D68" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+          <t>De Borghermeester</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr"/>
       <c r="E68" t="inlineStr"/>
       <c r="F68" t="inlineStr"/>
       <c r="G68" t="inlineStr"/>
@@ -2225,19 +1957,15 @@
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>#een-der-soldaten</t>
+          <t>#den-bode</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>Een der Soldaten</t>
-        </is>
-      </c>
-      <c r="D69" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+          <t>Den Bode</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr"/>
       <c r="E69" t="inlineStr"/>
       <c r="F69" t="inlineStr"/>
       <c r="G69" t="inlineStr"/>
@@ -2251,19 +1979,15 @@
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>#ghemeen-staten</t>
+          <t>#eerste-der-hoplieden-vander-stad</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>Ghemeen Staten</t>
-        </is>
-      </c>
-      <c r="D70" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+          <t>Eerste der Hoplieden vander Stad</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr"/>
       <c r="E70" t="inlineStr"/>
       <c r="F70" t="inlineStr"/>
       <c r="G70" t="inlineStr"/>
@@ -2277,19 +2001,15 @@
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>#graeff-philips</t>
+          <t>#tvveeden</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>Graeff Philips</t>
-        </is>
-      </c>
-      <c r="D71" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+          <t>Tvveeden</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr"/>
       <c r="E71" t="inlineStr"/>
       <c r="F71" t="inlineStr"/>
       <c r="G71" t="inlineStr"/>
@@ -2303,19 +2023,15 @@
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>#havicx</t>
+          <t>#herrogeir</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>Havicx</t>
-        </is>
-      </c>
-      <c r="D72" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+          <t>Herrogeir</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr"/>
       <c r="E72" t="inlineStr"/>
       <c r="F72" t="inlineStr"/>
       <c r="G72" t="inlineStr"/>
@@ -2329,19 +2045,15 @@
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>#alonso-lopes-inde-schants-van-lammen</t>
+          <t>#d'ouerste-vande-vvacht</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>Alonso Lopes inde Schants van Lammen</t>
-        </is>
-      </c>
-      <c r="D73" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+          <t>d'Ouerste vande VVacht</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr"/>
       <c r="E73" t="inlineStr"/>
       <c r="F73" t="inlineStr"/>
       <c r="G73" t="inlineStr"/>
@@ -2355,19 +2067,15 @@
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>#tvveede-der-vrouvven</t>
+          <t>#de-knecht</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>Tvveede der Vrouvven</t>
-        </is>
-      </c>
-      <c r="D74" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+          <t>De Knecht</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr"/>
       <c r="E74" t="inlineStr"/>
       <c r="F74" t="inlineStr"/>
       <c r="G74" t="inlineStr"/>
@@ -2381,19 +2089,15 @@
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>#zvvartsenburch</t>
+          <t>#derden,-comt-uyt-ghecleed-als-een-duytsch-lants-knecht</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>Zvvartsenburch</t>
-        </is>
-      </c>
-      <c r="D75" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+          <t>Derden, comt uyt ghecleed als een Duytsch Lants-knecht</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr"/>
       <c r="E75" t="inlineStr"/>
       <c r="F75" t="inlineStr"/>
       <c r="G75" t="inlineStr"/>
@@ -2407,19 +2111,15 @@
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>#tweede-der-borgheren</t>
+          <t>#de-prins-van-oraingnen</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>Tweede der borgheren</t>
-        </is>
-      </c>
-      <c r="D76" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+          <t>De Prins van Oraingnen</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr"/>
       <c r="E76" t="inlineStr"/>
       <c r="F76" t="inlineStr"/>
       <c r="G76" t="inlineStr"/>
@@ -2433,19 +2133,15 @@
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>#soldaet-van-buyten</t>
+          <t>#derden</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>Soldaet van buyten</t>
-        </is>
-      </c>
-      <c r="D77" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+          <t>Derden</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr"/>
       <c r="E77" t="inlineStr"/>
       <c r="F77" t="inlineStr"/>
       <c r="G77" t="inlineStr"/>
@@ -2459,19 +2155,15 @@
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>#gherards</t>
+          <t>#den-derden-comt-vveer-uyt,-met-veel-goets-gheladen</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>Gherards</t>
-        </is>
-      </c>
-      <c r="D78" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+          <t>Den Derden comt vveer uyt, met veel goets gheladen</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr"/>
       <c r="E78" t="inlineStr"/>
       <c r="F78" t="inlineStr"/>
       <c r="G78" t="inlineStr"/>
@@ -2485,19 +2177,15 @@
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>#den-derden</t>
+          <t>#goede-ghemeynte</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>Den Derden</t>
-        </is>
-      </c>
-      <c r="D79" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+          <t>Goede Ghemeynte</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr"/>
       <c r="E79" t="inlineStr"/>
       <c r="F79" t="inlineStr"/>
       <c r="G79" t="inlineStr"/>
@@ -2511,19 +2199,15 @@
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>#spaenschen-raed</t>
+          <t>#tvveede</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>Spaenschen Raed</t>
-        </is>
-      </c>
-      <c r="D80" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+          <t>Tvveede</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr"/>
       <c r="E80" t="inlineStr"/>
       <c r="F80" t="inlineStr"/>
       <c r="G80" t="inlineStr"/>
@@ -2537,19 +2221,15 @@
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>#graeff-mauritz</t>
+          <t>#den-landman</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>Graeff Mauritz</t>
-        </is>
-      </c>
-      <c r="D81" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+          <t>Den Landman</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr"/>
       <c r="E81" t="inlineStr"/>
       <c r="F81" t="inlineStr"/>
       <c r="G81" t="inlineStr"/>
@@ -2563,19 +2243,15 @@
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>#eerste-der-vrouvven</t>
+          <t>#inquisitie</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>Eerste der Vrouvven</t>
-        </is>
-      </c>
-      <c r="D82" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+          <t>Inquisitie</t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr"/>
       <c r="E82" t="inlineStr"/>
       <c r="F82" t="inlineStr"/>
       <c r="G82" t="inlineStr"/>
@@ -2589,19 +2265,15 @@
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>#t'gheld</t>
+          <t>#eerste-der-hoplieden</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>T'gheld</t>
-        </is>
-      </c>
-      <c r="D83" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+          <t>Eerste der Hoplieden</t>
+        </is>
+      </c>
+      <c r="D83" t="inlineStr"/>
       <c r="E83" t="inlineStr"/>
       <c r="F83" t="inlineStr"/>
       <c r="G83" t="inlineStr"/>
@@ -2615,19 +2287,15 @@
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>#gods-stranghe-rechtvaerdicheyt</t>
+          <t>#tvveede-der-hoplieden,</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>Gods stranghe rechtvaerdicheyt</t>
-        </is>
-      </c>
-      <c r="D84" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+          <t>Tvveede der Hoplieden,</t>
+        </is>
+      </c>
+      <c r="D84" t="inlineStr"/>
       <c r="E84" t="inlineStr"/>
       <c r="F84" t="inlineStr"/>
       <c r="G84" t="inlineStr"/>
@@ -2641,19 +2309,15 @@
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>#lovvys-boysot</t>
+          <t>#dander-kind</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>Lovvys Boysot</t>
-        </is>
-      </c>
-      <c r="D85" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+          <t>Dander Kind</t>
+        </is>
+      </c>
+      <c r="D85" t="inlineStr"/>
       <c r="E85" t="inlineStr"/>
       <c r="F85" t="inlineStr"/>
       <c r="G85" t="inlineStr"/>
@@ -2667,19 +2331,15 @@
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>#bloed-dorstich-ghemoed</t>
+          <t>#den-ionghen</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>Bloed-dorstich ghemoed</t>
-        </is>
-      </c>
-      <c r="D86" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+          <t>Den Ionghen</t>
+        </is>
+      </c>
+      <c r="D86" t="inlineStr"/>
       <c r="E86" t="inlineStr"/>
       <c r="F86" t="inlineStr"/>
       <c r="G86" t="inlineStr"/>
@@ -2693,19 +2353,15 @@
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>#de-minne</t>
+          <t>#vander-does-aende-poorten-vander-stad</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>De Minne</t>
-        </is>
-      </c>
-      <c r="D87" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+          <t>Vander Does aende poorten vander Stad</t>
+        </is>
+      </c>
+      <c r="D87" t="inlineStr"/>
       <c r="E87" t="inlineStr"/>
       <c r="F87" t="inlineStr"/>
       <c r="G87" t="inlineStr"/>
@@ -2719,19 +2375,15 @@
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>#tvveede-en-derden-der-borgheren</t>
+          <t>#schoffierighe-begheerte</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>Tvveede en Derden der Borgheren</t>
-        </is>
-      </c>
-      <c r="D88" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+          <t>Schoffierighe begheerte</t>
+        </is>
+      </c>
+      <c r="D88" t="inlineStr"/>
       <c r="E88" t="inlineStr"/>
       <c r="F88" t="inlineStr"/>
       <c r="G88" t="inlineStr"/>
@@ -2745,19 +2397,15 @@
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>#den-bode</t>
+          <t>#besluyt-reden-by-den-dicht-stelder</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>Den Bode</t>
-        </is>
-      </c>
-      <c r="D89" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+          <t>Besluyt-reden by den dicht-stelder</t>
+        </is>
+      </c>
+      <c r="D89" t="inlineStr"/>
       <c r="E89" t="inlineStr"/>
       <c r="F89" t="inlineStr"/>
       <c r="G89" t="inlineStr"/>
@@ -2771,19 +2419,15 @@
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>#derden-der-borgheren</t>
+          <t>#rijckdom</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>Derden der Borgheren</t>
-        </is>
-      </c>
-      <c r="D90" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+          <t>Rijckdom</t>
+        </is>
+      </c>
+      <c r="D90" t="inlineStr"/>
       <c r="E90" t="inlineStr"/>
       <c r="F90" t="inlineStr"/>
       <c r="G90" t="inlineStr"/>
@@ -2797,19 +2441,15 @@
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>#capiteyn-lambert</t>
+          <t>#de</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>Capiteyn Lambert</t>
-        </is>
-      </c>
-      <c r="D91" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+          <t>De</t>
+        </is>
+      </c>
+      <c r="D91" t="inlineStr"/>
       <c r="E91" t="inlineStr"/>
       <c r="F91" t="inlineStr"/>
       <c r="G91" t="inlineStr"/>
@@ -2823,19 +2463,15 @@
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>#overicheyd</t>
+          <t>#perseus</t>
         </is>
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>Overicheyd</t>
-        </is>
-      </c>
-      <c r="D92" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+          <t>Perseus</t>
+        </is>
+      </c>
+      <c r="D92" t="inlineStr"/>
       <c r="E92" t="inlineStr"/>
       <c r="F92" t="inlineStr"/>
       <c r="G92" t="inlineStr"/>
@@ -2849,19 +2485,15 @@
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>#frevel</t>
+          <t>#eenen-bode</t>
         </is>
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>Frevel</t>
-        </is>
-      </c>
-      <c r="D93" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+          <t>Eenen Bode</t>
+        </is>
+      </c>
+      <c r="D93" t="inlineStr"/>
       <c r="E93" t="inlineStr"/>
       <c r="F93" t="inlineStr"/>
       <c r="G93" t="inlineStr"/>
@@ -2875,19 +2507,15 @@
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>#eerste-der-bootsghesellen</t>
+          <t>#carion</t>
         </is>
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>Eerste der bootsghesellen</t>
-        </is>
-      </c>
-      <c r="D94" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+          <t>Carion</t>
+        </is>
+      </c>
+      <c r="D94" t="inlineStr"/>
       <c r="E94" t="inlineStr"/>
       <c r="F94" t="inlineStr"/>
       <c r="G94" t="inlineStr"/>
@@ -2901,19 +2529,15 @@
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>#den-derden-comt-vveer-uyt,-met-veel-goets-gheladen</t>
+          <t>#alonso-te-lammen</t>
         </is>
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>Den Derden comt vveer uyt, met veel goets gheladen</t>
-        </is>
-      </c>
-      <c r="D95" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+          <t>Alonso te Lammen</t>
+        </is>
+      </c>
+      <c r="D95" t="inlineStr"/>
       <c r="E95" t="inlineStr"/>
       <c r="F95" t="inlineStr"/>
       <c r="G95" t="inlineStr"/>
@@ -2927,19 +2551,15 @@
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>#t'verplichte-land</t>
+          <t>#een-der-soldaten-uyt-der-stad</t>
         </is>
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>t'Verplichte Land</t>
-        </is>
-      </c>
-      <c r="D96" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+          <t>Een der Soldaten uyt der Stad</t>
+        </is>
+      </c>
+      <c r="D96" t="inlineStr"/>
       <c r="E96" t="inlineStr"/>
       <c r="F96" t="inlineStr"/>
       <c r="G96" t="inlineStr"/>
@@ -2953,19 +2573,15 @@
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>#eenen-ionghen</t>
+          <t>#frevel</t>
         </is>
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t>Eenen Ionghen</t>
-        </is>
-      </c>
-      <c r="D97" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+          <t>Frevel</t>
+        </is>
+      </c>
+      <c r="D97" t="inlineStr"/>
       <c r="E97" t="inlineStr"/>
       <c r="F97" t="inlineStr"/>
       <c r="G97" t="inlineStr"/>
@@ -2979,19 +2595,15 @@
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>#inquisitie</t>
+          <t>#tvveede-der-borgermeesteren</t>
         </is>
       </c>
       <c r="C98" t="inlineStr">
         <is>
-          <t>Inquisitie</t>
-        </is>
-      </c>
-      <c r="D98" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+          <t>Tvveede der Borgermeesteren</t>
+        </is>
+      </c>
+      <c r="D98" t="inlineStr"/>
       <c r="E98" t="inlineStr"/>
       <c r="F98" t="inlineStr"/>
       <c r="G98" t="inlineStr"/>
@@ -3005,19 +2617,15 @@
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>#des-schippers-knecht</t>
+          <t>#alonso</t>
         </is>
       </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t>Des Schippers knecht</t>
-        </is>
-      </c>
-      <c r="D99" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+          <t>Alonso</t>
+        </is>
+      </c>
+      <c r="D99" t="inlineStr"/>
       <c r="E99" t="inlineStr"/>
       <c r="F99" t="inlineStr"/>
       <c r="G99" t="inlineStr"/>
@@ -3031,19 +2639,15 @@
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>#lovvisa</t>
+          <t>#heymelijcken-haed</t>
         </is>
       </c>
       <c r="C100" t="inlineStr">
         <is>
-          <t>Lovvisa</t>
-        </is>
-      </c>
-      <c r="D100" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+          <t>Heymelijcken-haed</t>
+        </is>
+      </c>
+      <c r="D100" t="inlineStr"/>
       <c r="E100" t="inlineStr"/>
       <c r="F100" t="inlineStr"/>
       <c r="G100" t="inlineStr"/>
@@ -3057,19 +2661,15 @@
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>#bode</t>
+          <t>#lovvys-boysot</t>
         </is>
       </c>
       <c r="C101" t="inlineStr">
         <is>
-          <t>Bode</t>
-        </is>
-      </c>
-      <c r="D101" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+          <t>Lovvys Boysot</t>
+        </is>
+      </c>
+      <c r="D101" t="inlineStr"/>
       <c r="E101" t="inlineStr"/>
       <c r="F101" t="inlineStr"/>
       <c r="G101" t="inlineStr"/>
@@ -3083,19 +2683,15 @@
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>#den-poeet-oft-dichtstelder-beduydende-t'voorgaende</t>
+          <t>#ghemeynen-man</t>
         </is>
       </c>
       <c r="C102" t="inlineStr">
         <is>
-          <t>Den Poeet oft Dichtstelder beduydende t'voorgaende</t>
-        </is>
-      </c>
-      <c r="D102" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+          <t>Ghemeynen man</t>
+        </is>
+      </c>
+      <c r="D102" t="inlineStr"/>
       <c r="E102" t="inlineStr"/>
       <c r="F102" t="inlineStr"/>
       <c r="G102" t="inlineStr"/>
@@ -3109,19 +2705,15 @@
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>#vvraeck-gierich-hert</t>
+          <t>#tvveede-der-borgheren</t>
         </is>
       </c>
       <c r="C103" t="inlineStr">
         <is>
-          <t>vvraeck-gierich hert</t>
-        </is>
-      </c>
-      <c r="D103" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+          <t>Tvveede der Borgheren</t>
+        </is>
+      </c>
+      <c r="D103" t="inlineStr"/>
       <c r="E103" t="inlineStr"/>
       <c r="F103" t="inlineStr"/>
       <c r="G103" t="inlineStr"/>
@@ -3135,19 +2727,15 @@
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>#cepheus</t>
+          <t>#des-schippers-knecht</t>
         </is>
       </c>
       <c r="C104" t="inlineStr">
         <is>
-          <t>Cepheus</t>
-        </is>
-      </c>
-      <c r="D104" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+          <t>Des Schippers knecht</t>
+        </is>
+      </c>
+      <c r="D104" t="inlineStr"/>
       <c r="E104" t="inlineStr"/>
       <c r="F104" t="inlineStr"/>
       <c r="G104" t="inlineStr"/>
@@ -3161,19 +2749,15 @@
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>#den-jonghen</t>
+          <t>#dencoopman</t>
         </is>
       </c>
       <c r="C105" t="inlineStr">
         <is>
-          <t>Den Jonghen</t>
-        </is>
-      </c>
-      <c r="D105" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+          <t>DenCoopman</t>
+        </is>
+      </c>
+      <c r="D105" t="inlineStr"/>
       <c r="E105" t="inlineStr"/>
       <c r="F105" t="inlineStr"/>
       <c r="G105" t="inlineStr"/>
@@ -3187,19 +2771,15 @@
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>#ghemeynen-man</t>
+          <t>#den-borgher</t>
         </is>
       </c>
       <c r="C106" t="inlineStr">
         <is>
-          <t>Ghemeynen man</t>
-        </is>
-      </c>
-      <c r="D106" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+          <t>Den Borgher</t>
+        </is>
+      </c>
+      <c r="D106" t="inlineStr"/>
       <c r="E106" t="inlineStr"/>
       <c r="F106" t="inlineStr"/>
       <c r="G106" t="inlineStr"/>
@@ -3213,19 +2793,15 @@
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>#eerste-der-hoplieden-vander-stad</t>
+          <t>#trouvven-raed</t>
         </is>
       </c>
       <c r="C107" t="inlineStr">
         <is>
-          <t>Eerste der Hoplieden vander Stad</t>
-        </is>
-      </c>
-      <c r="D107" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+          <t>Trouvven Raed</t>
+        </is>
+      </c>
+      <c r="D107" t="inlineStr"/>
       <c r="E107" t="inlineStr"/>
       <c r="F107" t="inlineStr"/>
       <c r="G107" t="inlineStr"/>
@@ -3239,19 +2815,15 @@
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>#perseus</t>
+          <t>#tvveede-der-borgermeesteren</t>
         </is>
       </c>
       <c r="C108" t="inlineStr">
         <is>
-          <t>Perseus</t>
-        </is>
-      </c>
-      <c r="D108" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+          <t>Tvveede der borgermeesteren</t>
+        </is>
+      </c>
+      <c r="D108" t="inlineStr"/>
       <c r="E108" t="inlineStr"/>
       <c r="F108" t="inlineStr"/>
       <c r="G108" t="inlineStr"/>
@@ -3265,19 +2837,15 @@
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>#andromeda</t>
+          <t>#den-derden,-comt-uyt-costelijck-ghecleed-met-eenen-ionghen-achter-hem</t>
         </is>
       </c>
       <c r="C109" t="inlineStr">
         <is>
-          <t>Andromeda</t>
-        </is>
-      </c>
-      <c r="D109" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+          <t>Den Derden, comt uyt costelijck ghecleed met eenen Ionghen achter hem</t>
+        </is>
+      </c>
+      <c r="D109" t="inlineStr"/>
       <c r="E109" t="inlineStr"/>
       <c r="F109" t="inlineStr"/>
       <c r="G109" t="inlineStr"/>
@@ -3291,19 +2859,15 @@
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>#bloed-dorst</t>
+          <t>#adriaen-van-borghen</t>
         </is>
       </c>
       <c r="C110" t="inlineStr">
         <is>
-          <t>Bloed-dorst</t>
-        </is>
-      </c>
-      <c r="D110" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+          <t>Adriaen van Borghen</t>
+        </is>
+      </c>
+      <c r="D110" t="inlineStr"/>
       <c r="E110" t="inlineStr"/>
       <c r="F110" t="inlineStr"/>
       <c r="G110" t="inlineStr"/>
@@ -3317,19 +2881,15 @@
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>#carion-van-veers</t>
+          <t>#een-der-soldaten</t>
         </is>
       </c>
       <c r="C111" t="inlineStr">
         <is>
-          <t>Carion van veers</t>
-        </is>
-      </c>
-      <c r="D111" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+          <t>Een der Soldaten</t>
+        </is>
+      </c>
+      <c r="D111" t="inlineStr"/>
       <c r="E111" t="inlineStr"/>
       <c r="F111" t="inlineStr"/>
       <c r="G111" t="inlineStr"/>
@@ -3348,14 +2908,10 @@
       </c>
       <c r="C112" t="inlineStr">
         <is>
-          <t>Tvveede der Borghermeesteren</t>
-        </is>
-      </c>
-      <c r="D112" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+          <t>Tvveede der borghermeesteren</t>
+        </is>
+      </c>
+      <c r="D112" t="inlineStr"/>
       <c r="E112" t="inlineStr"/>
       <c r="F112" t="inlineStr"/>
       <c r="G112" t="inlineStr"/>
@@ -3369,19 +2925,15 @@
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>#troost-der-schriftueren</t>
+          <t>#carlon-inde-schants-by-boshuysen</t>
         </is>
       </c>
       <c r="C113" t="inlineStr">
         <is>
-          <t>Troost der schriftueren</t>
-        </is>
-      </c>
-      <c r="D113" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+          <t>Carlon inde Schants by Boshuysen</t>
+        </is>
+      </c>
+      <c r="D113" t="inlineStr"/>
       <c r="E113" t="inlineStr"/>
       <c r="F113" t="inlineStr"/>
       <c r="G113" t="inlineStr"/>
@@ -3395,19 +2947,15 @@
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>#de-prins-van-oraingnen</t>
+          <t>#ghetrouvven-raed</t>
         </is>
       </c>
       <c r="C114" t="inlineStr">
         <is>
-          <t>De Prins van Oraingnen</t>
-        </is>
-      </c>
-      <c r="D114" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+          <t>Ghetrouvven Raed</t>
+        </is>
+      </c>
+      <c r="D114" t="inlineStr"/>
       <c r="E114" t="inlineStr"/>
       <c r="F114" t="inlineStr"/>
       <c r="G114" t="inlineStr"/>
@@ -3421,19 +2969,15 @@
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>#een-kind</t>
+          <t>#een-der-hoplieden</t>
         </is>
       </c>
       <c r="C115" t="inlineStr">
         <is>
-          <t>Een Kind</t>
-        </is>
-      </c>
-      <c r="D115" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+          <t>Een der Hoplieden</t>
+        </is>
+      </c>
+      <c r="D115" t="inlineStr"/>
       <c r="E115" t="inlineStr"/>
       <c r="F115" t="inlineStr"/>
       <c r="G115" t="inlineStr"/>
@@ -3447,19 +2991,15 @@
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>#hopman</t>
+          <t>#t'gheld</t>
         </is>
       </c>
       <c r="C116" t="inlineStr">
         <is>
-          <t>Hopman</t>
-        </is>
-      </c>
-      <c r="D116" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+          <t>T'gheld</t>
+        </is>
+      </c>
+      <c r="D116" t="inlineStr"/>
       <c r="E116" t="inlineStr"/>
       <c r="F116" t="inlineStr"/>
       <c r="G116" t="inlineStr"/>
@@ -3473,19 +3013,15 @@
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>#alonso</t>
+          <t>#een-soldaet-opt-casteel</t>
         </is>
       </c>
       <c r="C117" t="inlineStr">
         <is>
-          <t>Alonso</t>
-        </is>
-      </c>
-      <c r="D117" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+          <t>Een Soldaet opt Casteel</t>
+        </is>
+      </c>
+      <c r="D117" t="inlineStr"/>
       <c r="E117" t="inlineStr"/>
       <c r="F117" t="inlineStr"/>
       <c r="G117" t="inlineStr"/>
@@ -3499,19 +3035,15 @@
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>#de-borghermeester</t>
+          <t>#overicheyd</t>
         </is>
       </c>
       <c r="C118" t="inlineStr">
         <is>
-          <t>De borghermeester</t>
-        </is>
-      </c>
-      <c r="D118" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+          <t>Overicheyd</t>
+        </is>
+      </c>
+      <c r="D118" t="inlineStr"/>
       <c r="E118" t="inlineStr"/>
       <c r="F118" t="inlineStr"/>
       <c r="G118" t="inlineStr"/>
@@ -3525,19 +3057,15 @@
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>#de-prins</t>
+          <t>#een-der-borgheren</t>
         </is>
       </c>
       <c r="C119" t="inlineStr">
         <is>
-          <t>De Prins</t>
-        </is>
-      </c>
-      <c r="D119" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+          <t>Een der borgheren</t>
+        </is>
+      </c>
+      <c r="D119" t="inlineStr"/>
       <c r="E119" t="inlineStr"/>
       <c r="F119" t="inlineStr"/>
       <c r="G119" t="inlineStr"/>
@@ -3551,12 +3079,12 @@
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>#tvveede</t>
+          <t>#eerste.-der-crijchslieden</t>
         </is>
       </c>
       <c r="C120" t="inlineStr">
         <is>
-          <t>Tvveeden</t>
+          <t>Eerste. der Crijchslieden</t>
         </is>
       </c>
       <c r="D120" t="inlineStr"/>
@@ -3573,12 +3101,12 @@
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>#derden</t>
+          <t>#derden-der-borgheren</t>
         </is>
       </c>
       <c r="C121" t="inlineStr">
         <is>
-          <t>Derde</t>
+          <t>Derden der Borgheren</t>
         </is>
       </c>
       <c r="D121" t="inlineStr"/>
@@ -3595,12 +3123,12 @@
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>#eerste</t>
+          <t>#herrogier</t>
         </is>
       </c>
       <c r="C122" t="inlineStr">
         <is>
-          <t>Eersten</t>
+          <t>Herrogier</t>
         </is>
       </c>
       <c r="D122" t="inlineStr"/>
@@ -3617,12 +3145,12 @@
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>#eerste-der-crijchslieden</t>
+          <t>#eerste-der-vrouvven</t>
         </is>
       </c>
       <c r="C123" t="inlineStr">
         <is>
-          <t>Eerste. der Crijchslieden</t>
+          <t>Eerste der Vrouvven</t>
         </is>
       </c>
       <c r="D123" t="inlineStr"/>
@@ -3639,12 +3167,12 @@
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t>#den-hopman</t>
+          <t>#vvraeck-gierich-hert</t>
         </is>
       </c>
       <c r="C124" t="inlineStr">
         <is>
-          <t>DenCoopman</t>
+          <t>vvraeck-gierich hert</t>
         </is>
       </c>
       <c r="D124" t="inlineStr"/>
@@ -3661,12 +3189,12 @@
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>#den-hopman</t>
+          <t>#den-hoofmeester</t>
         </is>
       </c>
       <c r="C125" t="inlineStr">
         <is>
-          <t>Den Coopman</t>
+          <t>Den Hoofmeester</t>
         </is>
       </c>
       <c r="D125" t="inlineStr"/>
@@ -3683,12 +3211,12 @@
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>#gherards</t>
+          <t>#carion-van-veers</t>
         </is>
       </c>
       <c r="C126" t="inlineStr">
         <is>
-          <t>Geerards</t>
+          <t>Carion van veers</t>
         </is>
       </c>
       <c r="D126" t="inlineStr"/>
@@ -3710,7 +3238,7 @@
       </c>
       <c r="C127" t="inlineStr">
         <is>
-          <t>Spaenschen-Raed</t>
+          <t>Spaenschen Raed</t>
         </is>
       </c>
       <c r="D127" t="inlineStr"/>
@@ -3727,12 +3255,12 @@
       </c>
       <c r="B128" t="inlineStr">
         <is>
-          <t>#tvveede-der-hoplieden</t>
+          <t>#een-der-bootsghesellen</t>
         </is>
       </c>
       <c r="C128" t="inlineStr">
         <is>
-          <t>Tvveede der Hoplieden,</t>
+          <t>Een der bootsghesellen</t>
         </is>
       </c>
       <c r="D128" t="inlineStr"/>
@@ -3749,12 +3277,12 @@
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t>#derden</t>
+          <t>#een-der-soldaten-roept-voor-en-d'ander-al-nae</t>
         </is>
       </c>
       <c r="C129" t="inlineStr">
         <is>
-          <t>Vierden</t>
+          <t>Een der Soldaten roept voor en d'ander al nae</t>
         </is>
       </c>
       <c r="D129" t="inlineStr"/>
@@ -3771,12 +3299,12 @@
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t>#tvveede-der-borghermeesteren</t>
+          <t>#tvveede-en-derden-der-borgheren</t>
         </is>
       </c>
       <c r="C130" t="inlineStr">
         <is>
-          <t>Tvveede der borghermeesteren</t>
+          <t>Tvveede en Derden der Borgheren</t>
         </is>
       </c>
       <c r="D130" t="inlineStr"/>
@@ -3793,12 +3321,12 @@
       </c>
       <c r="B131" t="inlineStr">
         <is>
-          <t>#tvveede-der-borghermeesteren</t>
+          <t>#tvveede-der-vrouvven</t>
         </is>
       </c>
       <c r="C131" t="inlineStr">
         <is>
-          <t>Tvveede der Borgermeesteren</t>
+          <t>Tvveede der Vrouvven</t>
         </is>
       </c>
       <c r="D131" t="inlineStr"/>
@@ -3815,12 +3343,12 @@
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t>#tvveede-der-borghermeesteren</t>
+          <t>#gods-stranghe-rechtvaerdicheyt</t>
         </is>
       </c>
       <c r="C132" t="inlineStr">
         <is>
-          <t>Tvveede der borgermeesteren</t>
+          <t>Gods stranghe rechtvaerdicheyt</t>
         </is>
       </c>
       <c r="D132" t="inlineStr"/>
@@ -3837,12 +3365,12 @@
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t>#eerste-der-borghermeesteren</t>
+          <t>#een-van-de-draghers</t>
         </is>
       </c>
       <c r="C133" t="inlineStr">
         <is>
-          <t>Eerste der borgermeesteren</t>
+          <t>Een van de Draghers</t>
         </is>
       </c>
       <c r="D133" t="inlineStr"/>
@@ -3859,12 +3387,12 @@
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t>#derden-der-borgheren</t>
+          <t>#ghemeene-staten</t>
         </is>
       </c>
       <c r="C134" t="inlineStr">
         <is>
-          <t>Derden der borgheren</t>
+          <t>Ghemeene Staten</t>
         </is>
       </c>
       <c r="D134" t="inlineStr"/>
@@ -3881,12 +3409,12 @@
       </c>
       <c r="B135" t="inlineStr">
         <is>
-          <t>#eerste-der-borgheren</t>
+          <t>#eerste-der-borgermeesteren</t>
         </is>
       </c>
       <c r="C135" t="inlineStr">
         <is>
-          <t>Eerste der borgheren</t>
+          <t>Eerste der borgermeesteren</t>
         </is>
       </c>
       <c r="D135" t="inlineStr"/>
@@ -3903,12 +3431,12 @@
       </c>
       <c r="B136" t="inlineStr">
         <is>
-          <t>#den-bode</t>
+          <t>#spaenschen-raed</t>
         </is>
       </c>
       <c r="C136" t="inlineStr">
         <is>
-          <t>De Bode</t>
+          <t>Spaenschen-Raed</t>
         </is>
       </c>
       <c r="D136" t="inlineStr"/>
@@ -3925,12 +3453,12 @@
       </c>
       <c r="B137" t="inlineStr">
         <is>
-          <t>#den-bode</t>
+          <t>#ghemeyne-staten</t>
         </is>
       </c>
       <c r="C137" t="inlineStr">
         <is>
-          <t>Den Boer</t>
+          <t>Ghemeyne Staten</t>
         </is>
       </c>
       <c r="D137" t="inlineStr"/>
@@ -3947,12 +3475,12 @@
       </c>
       <c r="B138" t="inlineStr">
         <is>
-          <t>#een-van-de-boeren</t>
+          <t>#tweede-der-borghermeesteren</t>
         </is>
       </c>
       <c r="C138" t="inlineStr">
         <is>
-          <t>Een vande Boeren</t>
+          <t>Tweede der Borghermeesteren</t>
         </is>
       </c>
       <c r="D138" t="inlineStr"/>
@@ -3969,12 +3497,12 @@
       </c>
       <c r="B139" t="inlineStr">
         <is>
-          <t>#tweede-der-borgheren</t>
+          <t>#gherards</t>
         </is>
       </c>
       <c r="C139" t="inlineStr">
         <is>
-          <t>Tvveede der borgheren</t>
+          <t>Gherards</t>
         </is>
       </c>
       <c r="D139" t="inlineStr"/>
@@ -3991,12 +3519,12 @@
       </c>
       <c r="B140" t="inlineStr">
         <is>
-          <t>#eerste-der-borghermeesteren</t>
+          <t>#gemeyne-staten</t>
         </is>
       </c>
       <c r="C140" t="inlineStr">
         <is>
-          <t>Eerste der borghermeesteren</t>
+          <t>Gemeyne Staten</t>
         </is>
       </c>
       <c r="D140" t="inlineStr"/>
@@ -4013,12 +3541,12 @@
       </c>
       <c r="B141" t="inlineStr">
         <is>
-          <t>#tvveede-der-borgheren</t>
+          <t>#vander-does</t>
         </is>
       </c>
       <c r="C141" t="inlineStr">
         <is>
-          <t>Tvveede der borgeren</t>
+          <t>Vander Does</t>
         </is>
       </c>
       <c r="D141" t="inlineStr"/>
@@ -4035,12 +3563,12 @@
       </c>
       <c r="B142" t="inlineStr">
         <is>
-          <t>#de-borghermeester</t>
+          <t>#andromeda</t>
         </is>
       </c>
       <c r="C142" t="inlineStr">
         <is>
-          <t>De Borgermeester</t>
+          <t>Andromeda</t>
         </is>
       </c>
       <c r="D142" t="inlineStr"/>
@@ -4057,12 +3585,12 @@
       </c>
       <c r="B143" t="inlineStr">
         <is>
-          <t>#tvveede-der-borgheren</t>
+          <t>#eerste-der-borgheren</t>
         </is>
       </c>
       <c r="C143" t="inlineStr">
         <is>
-          <t>Tvveede der Borgeren</t>
+          <t>Eerste der Borgheren</t>
         </is>
       </c>
       <c r="D143" t="inlineStr"/>
@@ -4079,12 +3607,12 @@
       </c>
       <c r="B144" t="inlineStr">
         <is>
-          <t>#de-borghermeester</t>
+          <t>#lovvisa</t>
         </is>
       </c>
       <c r="C144" t="inlineStr">
         <is>
-          <t>De Borghermeester</t>
+          <t>Lovvisa</t>
         </is>
       </c>
       <c r="D144" t="inlineStr"/>
@@ -4101,12 +3629,12 @@
       </c>
       <c r="B145" t="inlineStr">
         <is>
-          <t>#een-der-borgheren</t>
+          <t>#bloed-dorst</t>
         </is>
       </c>
       <c r="C145" t="inlineStr">
         <is>
-          <t>Een der Borgeren</t>
+          <t>Bloed-dorst</t>
         </is>
       </c>
       <c r="D145" t="inlineStr"/>
@@ -4123,12 +3651,12 @@
       </c>
       <c r="B146" t="inlineStr">
         <is>
-          <t>#den-jonghen</t>
+          <t>#rithmeester</t>
         </is>
       </c>
       <c r="C146" t="inlineStr">
         <is>
-          <t>Den Ionghen</t>
+          <t>Rithmeester</t>
         </is>
       </c>
       <c r="D146" t="inlineStr"/>
@@ -4145,12 +3673,12 @@
       </c>
       <c r="B147" t="inlineStr">
         <is>
-          <t>#troost-der-schriftueren</t>
+          <t>#eerste-der-bootsghesellen</t>
         </is>
       </c>
       <c r="C147" t="inlineStr">
         <is>
-          <t>Troost der Schriftueren</t>
+          <t>Eerste der bootsghesellen</t>
         </is>
       </c>
       <c r="D147" t="inlineStr"/>
@@ -4167,12 +3695,12 @@
       </c>
       <c r="B148" t="inlineStr">
         <is>
-          <t>#herrogier</t>
+          <t>#hopman</t>
         </is>
       </c>
       <c r="C148" t="inlineStr">
         <is>
-          <t>Herrogeir</t>
+          <t>Hopman</t>
         </is>
       </c>
       <c r="D148" t="inlineStr"/>
@@ -4189,12 +3717,12 @@
       </c>
       <c r="B149" t="inlineStr">
         <is>
-          <t>#eenen-pagie</t>
+          <t>#zvvartsenburch</t>
         </is>
       </c>
       <c r="C149" t="inlineStr">
         <is>
-          <t>Eenen Pagie</t>
+          <t>Zvvartsenburch</t>
         </is>
       </c>
       <c r="D149" t="inlineStr"/>
@@ -4211,12 +3739,12 @@
       </c>
       <c r="B150" t="inlineStr">
         <is>
-          <t>#tvveede-der-borghermeesteren</t>
+          <t>#de-minne</t>
         </is>
       </c>
       <c r="C150" t="inlineStr">
         <is>
-          <t>Tweede der Borghermeesteren</t>
+          <t>De Minne</t>
         </is>
       </c>
       <c r="D150" t="inlineStr"/>
@@ -4233,12 +3761,12 @@
       </c>
       <c r="B151" t="inlineStr">
         <is>
-          <t>#besluyt-reden-by-den-dicht-stelder</t>
+          <t>#schaldis</t>
         </is>
       </c>
       <c r="C151" t="inlineStr">
         <is>
-          <t>Besluyt-reden by den Dicht-stelder</t>
+          <t>Schaldis</t>
         </is>
       </c>
       <c r="D151" t="inlineStr"/>
@@ -4255,12 +3783,12 @@
       </c>
       <c r="B152" t="inlineStr">
         <is>
-          <t>#bloed-dorstich-ghemoed</t>
+          <t>#derde</t>
         </is>
       </c>
       <c r="C152" t="inlineStr">
         <is>
-          <t>bloed-dorstich ghemoed</t>
+          <t>Derde</t>
         </is>
       </c>
       <c r="D152" t="inlineStr"/>
@@ -4277,12 +3805,12 @@
       </c>
       <c r="B153" t="inlineStr">
         <is>
-          <t>#trouvven-raed</t>
+          <t>#eenen-pagie</t>
         </is>
       </c>
       <c r="C153" t="inlineStr">
         <is>
-          <t>Trouvven Raed</t>
+          <t>Eenen Pagie</t>
         </is>
       </c>
       <c r="D153" t="inlineStr"/>
@@ -4299,12 +3827,12 @@
       </c>
       <c r="B154" t="inlineStr">
         <is>
-          <t>#gemeyne-staten</t>
+          <t>#tvveede-der-hoplieden</t>
         </is>
       </c>
       <c r="C154" t="inlineStr">
         <is>
-          <t>Ghemeene Staten</t>
+          <t>Tvveede der Hoplieden</t>
         </is>
       </c>
       <c r="D154" t="inlineStr"/>
@@ -4321,12 +3849,12 @@
       </c>
       <c r="B155" t="inlineStr">
         <is>
-          <t>#gemeyne-staten</t>
+          <t>#vierden</t>
         </is>
       </c>
       <c r="C155" t="inlineStr">
         <is>
-          <t>Ghemeyne Staten</t>
+          <t>Vierden</t>
         </is>
       </c>
       <c r="D155" t="inlineStr"/>
@@ -4343,12 +3871,12 @@
       </c>
       <c r="B156" t="inlineStr">
         <is>
-          <t>#t'verplichte-land</t>
+          <t>#tvveede-der-borgheren</t>
         </is>
       </c>
       <c r="C156" t="inlineStr">
         <is>
-          <t>&amp;amp;apos;tVerplichte Land</t>
+          <t>Tvveede der borgheren</t>
         </is>
       </c>
       <c r="D156" t="inlineStr"/>
@@ -4357,6 +3885,28 @@
       <c r="G156" t="inlineStr"/>
       <c r="H156" t="inlineStr"/>
     </row>
+    <row r="157">
+      <c r="A157" t="inlineStr">
+        <is>
+          <t>https://www.dbnl.org/tekst/duym001ghed01_01/duym001ghed01_01_0106.php</t>
+        </is>
+      </c>
+      <c r="B157" t="inlineStr">
+        <is>
+          <t>#t'ghemeyn-volck</t>
+        </is>
+      </c>
+      <c r="C157" t="inlineStr">
+        <is>
+          <t>t'Ghemeyn volck</t>
+        </is>
+      </c>
+      <c r="D157" t="inlineStr"/>
+      <c r="E157" t="inlineStr"/>
+      <c r="F157" t="inlineStr"/>
+      <c r="G157" t="inlineStr"/>
+      <c r="H157" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/playlist_per_work/duym001ghed01.xlsx
+++ b/playlist_per_work/duym001ghed01.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H157"/>
+  <dimension ref="A1:I157"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -446,30 +446,35 @@
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
+          <t>new_id</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
           <t>speaker_variant</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>is_prefered</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>is_new</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>is_error</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>gender (Male/Female/Unknown/Other)</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>comments</t>
         </is>
@@ -483,19 +488,20 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>#den-trommel-slagher</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>Den Trommel-slagher</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr"/>
+          <t>#schaldis</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr"/>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>Schaldis</t>
+        </is>
+      </c>
       <c r="E2" t="inlineStr"/>
       <c r="F2" t="inlineStr"/>
       <c r="G2" t="inlineStr"/>
       <c r="H2" t="inlineStr"/>
+      <c r="I2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -505,19 +511,20 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>#den-vierden-der-borgheren</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>Den vierden der Borgheren</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr"/>
+          <t>#eerste-der-borgheren</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr"/>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>Eerste der Borgheren</t>
+        </is>
+      </c>
       <c r="E3" t="inlineStr"/>
       <c r="F3" t="inlineStr"/>
       <c r="G3" t="inlineStr"/>
       <c r="H3" t="inlineStr"/>
+      <c r="I3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -527,19 +534,20 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>#b</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>b</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr"/>
+          <t>#'tverplichte-land</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr"/>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>'tVerplichte Land</t>
+        </is>
+      </c>
       <c r="E4" t="inlineStr"/>
       <c r="F4" t="inlineStr"/>
       <c r="G4" t="inlineStr"/>
       <c r="H4" t="inlineStr"/>
+      <c r="I4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -549,19 +557,20 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>#eerste-der-borghermeester-leest-den-brief</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>Eerste der borghermeester leest den brief</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr"/>
+          <t>#een-der-bootsghesellen</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr"/>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>Een der bootsghesellen</t>
+        </is>
+      </c>
       <c r="E5" t="inlineStr"/>
       <c r="F5" t="inlineStr"/>
       <c r="G5" t="inlineStr"/>
       <c r="H5" t="inlineStr"/>
+      <c r="I5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -571,19 +580,20 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>#soldaet-van-buyten</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>Soldaet van buyten</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr"/>
+          <t>#eerste-der-borgermeesteren</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr"/>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>Eerste der borgermeesteren</t>
+        </is>
+      </c>
       <c r="E6" t="inlineStr"/>
       <c r="F6" t="inlineStr"/>
       <c r="G6" t="inlineStr"/>
       <c r="H6" t="inlineStr"/>
+      <c r="I6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -593,19 +603,20 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>#ghemeynte</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>Ghemeynte</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr"/>
+          <t>#een-kind</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr"/>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>Een Kind</t>
+        </is>
+      </c>
       <c r="E7" t="inlineStr"/>
       <c r="F7" t="inlineStr"/>
       <c r="G7" t="inlineStr"/>
       <c r="H7" t="inlineStr"/>
+      <c r="I7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -615,19 +626,20 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>#de-soldaet-spreeckt</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>De Soldaet spreeckt</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr"/>
+          <t>#tvveede-der-borgheren</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr"/>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>Tvveede der borgheren</t>
+        </is>
+      </c>
       <c r="E8" t="inlineStr"/>
       <c r="F8" t="inlineStr"/>
       <c r="G8" t="inlineStr"/>
       <c r="H8" t="inlineStr"/>
+      <c r="I8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -637,19 +649,20 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>#eerste-der-crijchslieden</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>Eerste der Crijchslieden</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr"/>
+          <t>#t'verplichte-land</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr"/>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>t'Verplichte Land</t>
+        </is>
+      </c>
       <c r="E9" t="inlineStr"/>
       <c r="F9" t="inlineStr"/>
       <c r="G9" t="inlineStr"/>
       <c r="H9" t="inlineStr"/>
+      <c r="I9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -659,19 +672,20 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>#cassiope</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>Cassiope</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr"/>
+          <t>#eenen-bode</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr"/>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>Eenen Bode</t>
+        </is>
+      </c>
       <c r="E10" t="inlineStr"/>
       <c r="F10" t="inlineStr"/>
       <c r="G10" t="inlineStr"/>
       <c r="H10" t="inlineStr"/>
+      <c r="I10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -681,19 +695,20 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>#de-bode</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>De Bode</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr"/>
+          <t>#derden,-comt-uyt-ghecleed-als-een-duytsch-lants-knecht</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr"/>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>Derden, comt uyt ghecleed als een Duytsch Lants-knecht</t>
+        </is>
+      </c>
       <c r="E11" t="inlineStr"/>
       <c r="F11" t="inlineStr"/>
       <c r="G11" t="inlineStr"/>
       <c r="H11" t="inlineStr"/>
+      <c r="I11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -703,19 +718,20 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>#den-derden</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>Den Derden</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr"/>
+          <t>#den-hoofmeester</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr"/>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>Den Hoofmeester</t>
+        </is>
+      </c>
       <c r="E12" t="inlineStr"/>
       <c r="F12" t="inlineStr"/>
       <c r="G12" t="inlineStr"/>
       <c r="H12" t="inlineStr"/>
+      <c r="I12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -725,19 +741,20 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>#baldeso</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>Baldeso</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr"/>
+          <t>#goede-ghemeynte</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr"/>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>Goede Ghemeynte</t>
+        </is>
+      </c>
       <c r="E13" t="inlineStr"/>
       <c r="F13" t="inlineStr"/>
       <c r="G13" t="inlineStr"/>
       <c r="H13" t="inlineStr"/>
+      <c r="I13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -747,19 +764,20 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>#edel-lieden</t>
-        </is>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>Edel-lieden</t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr"/>
+          <t>#een-der-borgheren</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr"/>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>Een der borgheren</t>
+        </is>
+      </c>
       <c r="E14" t="inlineStr"/>
       <c r="F14" t="inlineStr"/>
       <c r="G14" t="inlineStr"/>
       <c r="H14" t="inlineStr"/>
+      <c r="I14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -769,19 +787,20 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>#derden-der-borgheren</t>
-        </is>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>Derden der borgheren</t>
-        </is>
-      </c>
-      <c r="D15" t="inlineStr"/>
+          <t>#soldaet-van-binnen</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr"/>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>Soldaet van binnen</t>
+        </is>
+      </c>
       <c r="E15" t="inlineStr"/>
       <c r="F15" t="inlineStr"/>
       <c r="G15" t="inlineStr"/>
       <c r="H15" t="inlineStr"/>
+      <c r="I15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -791,19 +810,20 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>#eenen-pagie</t>
-        </is>
-      </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>Eenen pagie</t>
-        </is>
-      </c>
-      <c r="D16" t="inlineStr"/>
+          <t>#cassiope</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr"/>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>Cassiope</t>
+        </is>
+      </c>
       <c r="E16" t="inlineStr"/>
       <c r="F16" t="inlineStr"/>
       <c r="G16" t="inlineStr"/>
       <c r="H16" t="inlineStr"/>
+      <c r="I16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -813,19 +833,20 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>#capiteyn-lambert</t>
-        </is>
-      </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>Capiteyn Lambert</t>
-        </is>
-      </c>
-      <c r="D17" t="inlineStr"/>
+          <t>#eenen-pagie</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr"/>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>Eenen pagie</t>
+        </is>
+      </c>
       <c r="E17" t="inlineStr"/>
       <c r="F17" t="inlineStr"/>
       <c r="G17" t="inlineStr"/>
       <c r="H17" t="inlineStr"/>
+      <c r="I17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -835,19 +856,20 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>#'tverplichte-land</t>
-        </is>
-      </c>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t>'tVerplichte Land</t>
-        </is>
-      </c>
-      <c r="D18" t="inlineStr"/>
+          <t>#carion</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr"/>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>Carion</t>
+        </is>
+      </c>
       <c r="E18" t="inlineStr"/>
       <c r="F18" t="inlineStr"/>
       <c r="G18" t="inlineStr"/>
       <c r="H18" t="inlineStr"/>
+      <c r="I18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -857,19 +879,20 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>#troost-der-schriftueren</t>
-        </is>
-      </c>
-      <c r="C19" t="inlineStr">
-        <is>
-          <t>Troost der Schriftueren</t>
-        </is>
-      </c>
-      <c r="D19" t="inlineStr"/>
+          <t>#eerste-der-crijchslieden</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr"/>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>Eerste der Crijchslieden</t>
+        </is>
+      </c>
       <c r="E19" t="inlineStr"/>
       <c r="F19" t="inlineStr"/>
       <c r="G19" t="inlineStr"/>
       <c r="H19" t="inlineStr"/>
+      <c r="I19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -879,19 +902,20 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>#den-jonghen</t>
-        </is>
-      </c>
-      <c r="C20" t="inlineStr">
-        <is>
-          <t>Den Jonghen</t>
-        </is>
-      </c>
-      <c r="D20" t="inlineStr"/>
+          <t>#eerste-der-borghermeester-leest-den-brief</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr"/>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>Eerste der borghermeester leest den brief</t>
+        </is>
+      </c>
       <c r="E20" t="inlineStr"/>
       <c r="F20" t="inlineStr"/>
       <c r="G20" t="inlineStr"/>
       <c r="H20" t="inlineStr"/>
+      <c r="I20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -901,19 +925,20 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>#soldaet-van-binnen</t>
-        </is>
-      </c>
-      <c r="C21" t="inlineStr">
-        <is>
-          <t>Soldaet van binnen</t>
-        </is>
-      </c>
-      <c r="D21" t="inlineStr"/>
+          <t>#des-schippers-knecht</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr"/>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>Des Schippers knecht</t>
+        </is>
+      </c>
       <c r="E21" t="inlineStr"/>
       <c r="F21" t="inlineStr"/>
       <c r="G21" t="inlineStr"/>
       <c r="H21" t="inlineStr"/>
+      <c r="I21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -923,19 +948,20 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>#bloed-dorstich-ghemoed</t>
-        </is>
-      </c>
-      <c r="C22" t="inlineStr">
-        <is>
-          <t>bloed-dorstich ghemoed</t>
-        </is>
-      </c>
-      <c r="D22" t="inlineStr"/>
+          <t>#troost-der-schriftueren</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr"/>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>Troost der Schriftueren</t>
+        </is>
+      </c>
       <c r="E22" t="inlineStr"/>
       <c r="F22" t="inlineStr"/>
       <c r="G22" t="inlineStr"/>
       <c r="H22" t="inlineStr"/>
+      <c r="I22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -945,19 +971,20 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>#eerste</t>
-        </is>
-      </c>
-      <c r="C23" t="inlineStr">
-        <is>
-          <t>Eerste</t>
-        </is>
-      </c>
-      <c r="D23" t="inlineStr"/>
+          <t>#baldeso</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr"/>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>Baldeso</t>
+        </is>
+      </c>
       <c r="E23" t="inlineStr"/>
       <c r="F23" t="inlineStr"/>
       <c r="G23" t="inlineStr"/>
       <c r="H23" t="inlineStr"/>
+      <c r="I23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -967,19 +994,20 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>#havicx</t>
-        </is>
-      </c>
-      <c r="C24" t="inlineStr">
-        <is>
-          <t>Havicx</t>
-        </is>
-      </c>
-      <c r="D24" t="inlineStr"/>
+          <t>#den-boer</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr"/>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>Den Boer</t>
+        </is>
+      </c>
       <c r="E24" t="inlineStr"/>
       <c r="F24" t="inlineStr"/>
       <c r="G24" t="inlineStr"/>
       <c r="H24" t="inlineStr"/>
+      <c r="I24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -989,19 +1017,20 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>#quaet-regiment</t>
-        </is>
-      </c>
-      <c r="C25" t="inlineStr">
-        <is>
-          <t>Quaet regiment</t>
-        </is>
-      </c>
-      <c r="D25" t="inlineStr"/>
+          <t>#gheveynsden-peys</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr"/>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>Gheveynsden peys</t>
+        </is>
+      </c>
       <c r="E25" t="inlineStr"/>
       <c r="F25" t="inlineStr"/>
       <c r="G25" t="inlineStr"/>
       <c r="H25" t="inlineStr"/>
+      <c r="I25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -1011,19 +1040,20 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>#neeringhe</t>
-        </is>
-      </c>
-      <c r="C26" t="inlineStr">
-        <is>
-          <t>Neeringhe</t>
-        </is>
-      </c>
-      <c r="D26" t="inlineStr"/>
+          <t>#derden</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr"/>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>Derden</t>
+        </is>
+      </c>
       <c r="E26" t="inlineStr"/>
       <c r="F26" t="inlineStr"/>
       <c r="G26" t="inlineStr"/>
       <c r="H26" t="inlineStr"/>
+      <c r="I26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -1033,19 +1063,20 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>#lambert</t>
-        </is>
-      </c>
-      <c r="C27" t="inlineStr">
-        <is>
-          <t>Lambert</t>
-        </is>
-      </c>
-      <c r="D27" t="inlineStr"/>
+          <t>#de-soldaet-spreeckt</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr"/>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>De Soldaet spreeckt</t>
+        </is>
+      </c>
       <c r="E27" t="inlineStr"/>
       <c r="F27" t="inlineStr"/>
       <c r="G27" t="inlineStr"/>
       <c r="H27" t="inlineStr"/>
+      <c r="I27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -1055,19 +1086,20 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>#een-kind</t>
-        </is>
-      </c>
-      <c r="C28" t="inlineStr">
-        <is>
-          <t>Een Kind</t>
-        </is>
-      </c>
-      <c r="D28" t="inlineStr"/>
+          <t>#den-borgher</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr"/>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>Den Borgher</t>
+        </is>
+      </c>
       <c r="E28" t="inlineStr"/>
       <c r="F28" t="inlineStr"/>
       <c r="G28" t="inlineStr"/>
       <c r="H28" t="inlineStr"/>
+      <c r="I28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -1077,19 +1109,20 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>#tvveede-der-borgeren</t>
-        </is>
-      </c>
-      <c r="C29" t="inlineStr">
-        <is>
-          <t>Tvveede der Borgeren</t>
-        </is>
-      </c>
-      <c r="D29" t="inlineStr"/>
+          <t>#gherards</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr"/>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>Gherards</t>
+        </is>
+      </c>
       <c r="E29" t="inlineStr"/>
       <c r="F29" t="inlineStr"/>
       <c r="G29" t="inlineStr"/>
       <c r="H29" t="inlineStr"/>
+      <c r="I29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -1099,19 +1132,20 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>#tvveede-der-borghermeesteren</t>
-        </is>
-      </c>
-      <c r="C30" t="inlineStr">
-        <is>
-          <t>Tvveede der Borghermeesteren</t>
-        </is>
-      </c>
-      <c r="D30" t="inlineStr"/>
+          <t>#lovvys-boysot</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr"/>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>Lovvys Boysot</t>
+        </is>
+      </c>
       <c r="E30" t="inlineStr"/>
       <c r="F30" t="inlineStr"/>
       <c r="G30" t="inlineStr"/>
       <c r="H30" t="inlineStr"/>
+      <c r="I30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -1121,19 +1155,20 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>#eenen-ionghen</t>
-        </is>
-      </c>
-      <c r="C31" t="inlineStr">
-        <is>
-          <t>Eenen Ionghen</t>
-        </is>
-      </c>
-      <c r="D31" t="inlineStr"/>
+          <t>#schoffierighe-begheerte</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr"/>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>Schoffierighe begheerte</t>
+        </is>
+      </c>
       <c r="E31" t="inlineStr"/>
       <c r="F31" t="inlineStr"/>
       <c r="G31" t="inlineStr"/>
       <c r="H31" t="inlineStr"/>
+      <c r="I31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -1143,19 +1178,20 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>#graeff-philips</t>
-        </is>
-      </c>
-      <c r="C32" t="inlineStr">
-        <is>
-          <t>Graeff Philips</t>
-        </is>
-      </c>
-      <c r="D32" t="inlineStr"/>
+          <t>#eerste.-der-crijchslieden</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr"/>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>Eerste. der Crijchslieden</t>
+        </is>
+      </c>
       <c r="E32" t="inlineStr"/>
       <c r="F32" t="inlineStr"/>
       <c r="G32" t="inlineStr"/>
       <c r="H32" t="inlineStr"/>
+      <c r="I32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -1165,19 +1201,20 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>#cepheus</t>
-        </is>
-      </c>
-      <c r="C33" t="inlineStr">
-        <is>
-          <t>Cepheus</t>
-        </is>
-      </c>
-      <c r="D33" t="inlineStr"/>
+          <t>#derde</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr"/>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>Derde</t>
+        </is>
+      </c>
       <c r="E33" t="inlineStr"/>
       <c r="F33" t="inlineStr"/>
       <c r="G33" t="inlineStr"/>
       <c r="H33" t="inlineStr"/>
+      <c r="I33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -1187,19 +1224,20 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>#de-borghermeester</t>
-        </is>
-      </c>
-      <c r="C34" t="inlineStr">
-        <is>
-          <t>De borghermeester</t>
-        </is>
-      </c>
-      <c r="D34" t="inlineStr"/>
+          <t>#eerste</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr"/>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>Eerste</t>
+        </is>
+      </c>
       <c r="E34" t="inlineStr"/>
       <c r="F34" t="inlineStr"/>
       <c r="G34" t="inlineStr"/>
       <c r="H34" t="inlineStr"/>
+      <c r="I34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -1209,19 +1247,20 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>#goeden-crijgh</t>
-        </is>
-      </c>
-      <c r="C35" t="inlineStr">
-        <is>
-          <t>Goeden Crijgh</t>
-        </is>
-      </c>
-      <c r="D35" t="inlineStr"/>
+          <t>#de-borghermeester</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr"/>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>De Borghermeester</t>
+        </is>
+      </c>
       <c r="E35" t="inlineStr"/>
       <c r="F35" t="inlineStr"/>
       <c r="G35" t="inlineStr"/>
       <c r="H35" t="inlineStr"/>
+      <c r="I35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -1231,19 +1270,20 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>#besluyt-reden-by-den-dicht-stelder</t>
-        </is>
-      </c>
-      <c r="C36" t="inlineStr">
-        <is>
-          <t>Besluyt-reden by den Dicht-stelder</t>
-        </is>
-      </c>
-      <c r="D36" t="inlineStr"/>
+          <t>#een-der-borgeren</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr"/>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>Een der Borgeren</t>
+        </is>
+      </c>
       <c r="E36" t="inlineStr"/>
       <c r="F36" t="inlineStr"/>
       <c r="G36" t="inlineStr"/>
       <c r="H36" t="inlineStr"/>
+      <c r="I36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
@@ -1253,19 +1293,20 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>#troost-der-schriftueren</t>
-        </is>
-      </c>
-      <c r="C37" t="inlineStr">
-        <is>
-          <t>Troost der schriftueren</t>
-        </is>
-      </c>
-      <c r="D37" t="inlineStr"/>
+          <t>#eerste-der-borgheren</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr"/>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>Eerste der borgheren</t>
+        </is>
+      </c>
       <c r="E37" t="inlineStr"/>
       <c r="F37" t="inlineStr"/>
       <c r="G37" t="inlineStr"/>
       <c r="H37" t="inlineStr"/>
+      <c r="I37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
@@ -1275,19 +1316,20 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>#besluyt-reden-des-dichtstelders,</t>
-        </is>
-      </c>
-      <c r="C38" t="inlineStr">
-        <is>
-          <t>Besluyt-reden des Dichtstelders,</t>
-        </is>
-      </c>
-      <c r="D38" t="inlineStr"/>
+          <t>#de-minne</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr"/>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>De Minne</t>
+        </is>
+      </c>
       <c r="E38" t="inlineStr"/>
       <c r="F38" t="inlineStr"/>
       <c r="G38" t="inlineStr"/>
       <c r="H38" t="inlineStr"/>
+      <c r="I38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
@@ -1297,19 +1339,20 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>#geerards</t>
-        </is>
-      </c>
-      <c r="C39" t="inlineStr">
-        <is>
-          <t>Geerards</t>
-        </is>
-      </c>
-      <c r="D39" t="inlineStr"/>
+          <t>#edel-lieden</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr"/>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>Edel-lieden</t>
+        </is>
+      </c>
       <c r="E39" t="inlineStr"/>
       <c r="F39" t="inlineStr"/>
       <c r="G39" t="inlineStr"/>
       <c r="H39" t="inlineStr"/>
+      <c r="I39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
@@ -1319,19 +1362,20 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>#eerste-der-borgheren</t>
-        </is>
-      </c>
-      <c r="C40" t="inlineStr">
-        <is>
-          <t>Eerste der borgheren</t>
-        </is>
-      </c>
-      <c r="D40" t="inlineStr"/>
+          <t>#andromeda</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr"/>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>Andromeda</t>
+        </is>
+      </c>
       <c r="E40" t="inlineStr"/>
       <c r="F40" t="inlineStr"/>
       <c r="G40" t="inlineStr"/>
       <c r="H40" t="inlineStr"/>
+      <c r="I40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
@@ -1341,19 +1385,20 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>#den-hopman</t>
-        </is>
-      </c>
-      <c r="C41" t="inlineStr">
-        <is>
-          <t>Den Hopman</t>
-        </is>
-      </c>
-      <c r="D41" t="inlineStr"/>
+          <t>#alonso-lopes-inde-schants-van-lammen</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr"/>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>Alonso Lopes inde Schants van Lammen</t>
+        </is>
+      </c>
       <c r="E41" t="inlineStr"/>
       <c r="F41" t="inlineStr"/>
       <c r="G41" t="inlineStr"/>
       <c r="H41" t="inlineStr"/>
+      <c r="I41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
@@ -1363,19 +1408,20 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>#den-poeet-oft-dichtstelder-beduydende-t'voorgaende</t>
-        </is>
-      </c>
-      <c r="C42" t="inlineStr">
-        <is>
-          <t>Den Poeet oft Dichtstelder beduydende t'voorgaende</t>
-        </is>
-      </c>
-      <c r="D42" t="inlineStr"/>
+          <t>#den-derden-comt-vveer-uyt,-met-veel-goets-gheladen</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr"/>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>Den Derden comt vveer uyt, met veel goets gheladen</t>
+        </is>
+      </c>
       <c r="E42" t="inlineStr"/>
       <c r="F42" t="inlineStr"/>
       <c r="G42" t="inlineStr"/>
       <c r="H42" t="inlineStr"/>
+      <c r="I42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
@@ -1385,19 +1431,20 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>#bloed-dorstich-ghemoed</t>
-        </is>
-      </c>
-      <c r="C43" t="inlineStr">
-        <is>
-          <t>Bloed-dorstich ghemoed</t>
-        </is>
-      </c>
-      <c r="D43" t="inlineStr"/>
+          <t>#vander-does</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr"/>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>Vander Does</t>
+        </is>
+      </c>
       <c r="E43" t="inlineStr"/>
       <c r="F43" t="inlineStr"/>
       <c r="G43" t="inlineStr"/>
       <c r="H43" t="inlineStr"/>
+      <c r="I43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
@@ -1407,19 +1454,20 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>#de-sergeant</t>
-        </is>
-      </c>
-      <c r="C44" t="inlineStr">
-        <is>
-          <t>De Sergeant</t>
-        </is>
-      </c>
-      <c r="D44" t="inlineStr"/>
+          <t>#tweede-der-borghermeesteren</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr"/>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>Tweede der Borghermeesteren</t>
+        </is>
+      </c>
       <c r="E44" t="inlineStr"/>
       <c r="F44" t="inlineStr"/>
       <c r="G44" t="inlineStr"/>
       <c r="H44" t="inlineStr"/>
+      <c r="I44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
@@ -1429,19 +1477,20 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>#een-vande-boeren</t>
-        </is>
-      </c>
-      <c r="C45" t="inlineStr">
-        <is>
-          <t>Een vande Boeren</t>
-        </is>
-      </c>
-      <c r="D45" t="inlineStr"/>
+          <t>#alonso</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr"/>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>Alonso</t>
+        </is>
+      </c>
       <c r="E45" t="inlineStr"/>
       <c r="F45" t="inlineStr"/>
       <c r="G45" t="inlineStr"/>
       <c r="H45" t="inlineStr"/>
+      <c r="I45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
@@ -1451,19 +1500,20 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>#den-coopman</t>
-        </is>
-      </c>
-      <c r="C46" t="inlineStr">
-        <is>
-          <t>Den Coopman</t>
-        </is>
-      </c>
-      <c r="D46" t="inlineStr"/>
+          <t>#d'ouerste-vande-vvacht</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr"/>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>d'Ouerste vande VVacht</t>
+        </is>
+      </c>
       <c r="E46" t="inlineStr"/>
       <c r="F46" t="inlineStr"/>
       <c r="G46" t="inlineStr"/>
       <c r="H46" t="inlineStr"/>
+      <c r="I46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
@@ -1473,19 +1523,20 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>#eerste-der-borghermeesteren</t>
-        </is>
-      </c>
-      <c r="C47" t="inlineStr">
-        <is>
-          <t>Eerste der borghermeesteren</t>
-        </is>
-      </c>
-      <c r="D47" t="inlineStr"/>
+          <t>#den-ionghen</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr"/>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>Den Ionghen</t>
+        </is>
+      </c>
       <c r="E47" t="inlineStr"/>
       <c r="F47" t="inlineStr"/>
       <c r="G47" t="inlineStr"/>
       <c r="H47" t="inlineStr"/>
+      <c r="I47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
@@ -1495,19 +1546,20 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>#tweede-der-borgheren</t>
-        </is>
-      </c>
-      <c r="C48" t="inlineStr">
-        <is>
-          <t>Tweede der borgheren</t>
-        </is>
-      </c>
-      <c r="D48" t="inlineStr"/>
+          <t>#soldaet-van-buyten</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr"/>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>Soldaet van buyten</t>
+        </is>
+      </c>
       <c r="E48" t="inlineStr"/>
       <c r="F48" t="inlineStr"/>
       <c r="G48" t="inlineStr"/>
       <c r="H48" t="inlineStr"/>
+      <c r="I48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
@@ -1517,19 +1569,20 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>#tvveede-der-borgeren</t>
-        </is>
-      </c>
-      <c r="C49" t="inlineStr">
-        <is>
-          <t>Tvveede der borgeren</t>
-        </is>
-      </c>
-      <c r="D49" t="inlineStr"/>
+          <t>#eerste-der-hoplieden-vander-stad</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr"/>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>Eerste der Hoplieden vander Stad</t>
+        </is>
+      </c>
       <c r="E49" t="inlineStr"/>
       <c r="F49" t="inlineStr"/>
       <c r="G49" t="inlineStr"/>
       <c r="H49" t="inlineStr"/>
+      <c r="I49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
@@ -1539,19 +1592,20 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>#de-prins</t>
-        </is>
-      </c>
-      <c r="C50" t="inlineStr">
-        <is>
-          <t>De Prins</t>
-        </is>
-      </c>
-      <c r="D50" t="inlineStr"/>
+          <t>#gods-stranghe-rechtvaerdicheyt</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr"/>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>Gods stranghe rechtvaerdicheyt</t>
+        </is>
+      </c>
       <c r="E50" t="inlineStr"/>
       <c r="F50" t="inlineStr"/>
       <c r="G50" t="inlineStr"/>
       <c r="H50" t="inlineStr"/>
+      <c r="I50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
@@ -1561,19 +1615,20 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>#de-borgermeester</t>
-        </is>
-      </c>
-      <c r="C51" t="inlineStr">
-        <is>
-          <t>De Borgermeester</t>
-        </is>
-      </c>
-      <c r="D51" t="inlineStr"/>
+          <t>#eenen-ionghen</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr"/>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>Eenen Ionghen</t>
+        </is>
+      </c>
       <c r="E51" t="inlineStr"/>
       <c r="F51" t="inlineStr"/>
       <c r="G51" t="inlineStr"/>
       <c r="H51" t="inlineStr"/>
+      <c r="I51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
@@ -1583,19 +1638,20 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>#de-vrijheyd</t>
-        </is>
-      </c>
-      <c r="C52" t="inlineStr">
-        <is>
-          <t>De Vrijheyd</t>
-        </is>
-      </c>
-      <c r="D52" t="inlineStr"/>
+          <t>#troost-der-schriftueren</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr"/>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>Troost der schriftueren</t>
+        </is>
+      </c>
       <c r="E52" t="inlineStr"/>
       <c r="F52" t="inlineStr"/>
       <c r="G52" t="inlineStr"/>
       <c r="H52" t="inlineStr"/>
+      <c r="I52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
@@ -1605,19 +1661,20 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>#graeff-mauritz</t>
-        </is>
-      </c>
-      <c r="C53" t="inlineStr">
-        <is>
-          <t>Graeff Mauritz</t>
-        </is>
-      </c>
-      <c r="D53" t="inlineStr"/>
+          <t>#ghetrouvven-raed</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr"/>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>Ghetrouvven Raed</t>
+        </is>
+      </c>
       <c r="E53" t="inlineStr"/>
       <c r="F53" t="inlineStr"/>
       <c r="G53" t="inlineStr"/>
       <c r="H53" t="inlineStr"/>
+      <c r="I53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
@@ -1627,19 +1684,20 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>#t'verplichte-land</t>
-        </is>
-      </c>
-      <c r="C54" t="inlineStr">
-        <is>
-          <t>t'Verplichte Land</t>
-        </is>
-      </c>
-      <c r="D54" t="inlineStr"/>
+          <t>#de-borgermeester</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr"/>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>De Borgermeester</t>
+        </is>
+      </c>
       <c r="E54" t="inlineStr"/>
       <c r="F54" t="inlineStr"/>
       <c r="G54" t="inlineStr"/>
       <c r="H54" t="inlineStr"/>
+      <c r="I54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
@@ -1649,19 +1707,20 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>#bode</t>
-        </is>
-      </c>
-      <c r="C55" t="inlineStr">
-        <is>
-          <t>Bode</t>
-        </is>
-      </c>
-      <c r="D55" t="inlineStr"/>
+          <t>#cepheus</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr"/>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>Cepheus</t>
+        </is>
+      </c>
       <c r="E55" t="inlineStr"/>
       <c r="F55" t="inlineStr"/>
       <c r="G55" t="inlineStr"/>
       <c r="H55" t="inlineStr"/>
+      <c r="I55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
@@ -1671,19 +1730,20 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>#eerste-der-borghermeesteren</t>
-        </is>
-      </c>
-      <c r="C56" t="inlineStr">
-        <is>
-          <t>Eerste der Borghermeesteren</t>
-        </is>
-      </c>
-      <c r="D56" t="inlineStr"/>
+          <t>#eerste-der-hoplieden</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr"/>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>Eerste der Hoplieden</t>
+        </is>
+      </c>
       <c r="E56" t="inlineStr"/>
       <c r="F56" t="inlineStr"/>
       <c r="G56" t="inlineStr"/>
       <c r="H56" t="inlineStr"/>
+      <c r="I56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
@@ -1693,19 +1753,20 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>#alonso-lopes-inde-schants-van-lammen</t>
-        </is>
-      </c>
-      <c r="C57" t="inlineStr">
-        <is>
-          <t>Alonso Lopes inde Schants van Lammen</t>
-        </is>
-      </c>
-      <c r="D57" t="inlineStr"/>
+          <t>#eerste-der-borghermeesteren</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr"/>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>Eerste der borghermeesteren</t>
+        </is>
+      </c>
       <c r="E57" t="inlineStr"/>
       <c r="F57" t="inlineStr"/>
       <c r="G57" t="inlineStr"/>
       <c r="H57" t="inlineStr"/>
+      <c r="I57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
@@ -1715,19 +1776,20 @@
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>#den-boer</t>
-        </is>
-      </c>
-      <c r="C58" t="inlineStr">
-        <is>
-          <t>Den Boer</t>
-        </is>
-      </c>
-      <c r="D58" t="inlineStr"/>
+          <t>#neeringhe</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr"/>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>Neeringhe</t>
+        </is>
+      </c>
       <c r="E58" t="inlineStr"/>
       <c r="F58" t="inlineStr"/>
       <c r="G58" t="inlineStr"/>
       <c r="H58" t="inlineStr"/>
+      <c r="I58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
@@ -1737,19 +1799,20 @@
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>#antvverpia</t>
-        </is>
-      </c>
-      <c r="C59" t="inlineStr">
-        <is>
-          <t>Antvverpia</t>
-        </is>
-      </c>
-      <c r="D59" t="inlineStr"/>
+          <t>#spaenschen-raed</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr"/>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>Spaenschen-Raed</t>
+        </is>
+      </c>
       <c r="E59" t="inlineStr"/>
       <c r="F59" t="inlineStr"/>
       <c r="G59" t="inlineStr"/>
       <c r="H59" t="inlineStr"/>
+      <c r="I59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
@@ -1759,19 +1822,20 @@
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>#trouvven-raed</t>
-        </is>
-      </c>
-      <c r="C60" t="inlineStr">
-        <is>
-          <t>Trouvven raed</t>
-        </is>
-      </c>
-      <c r="D60" t="inlineStr"/>
+          <t>#t'ghemeyn-volck</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr"/>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>t'Ghemeyn volck</t>
+        </is>
+      </c>
       <c r="E60" t="inlineStr"/>
       <c r="F60" t="inlineStr"/>
       <c r="G60" t="inlineStr"/>
       <c r="H60" t="inlineStr"/>
+      <c r="I60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
@@ -1781,19 +1845,20 @@
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>#eersten</t>
-        </is>
-      </c>
-      <c r="C61" t="inlineStr">
-        <is>
-          <t>Eersten</t>
-        </is>
-      </c>
-      <c r="D61" t="inlineStr"/>
+          <t>#de-bode</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr"/>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>De Bode</t>
+        </is>
+      </c>
       <c r="E61" t="inlineStr"/>
       <c r="F61" t="inlineStr"/>
       <c r="G61" t="inlineStr"/>
       <c r="H61" t="inlineStr"/>
+      <c r="I61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
@@ -1806,16 +1871,17 @@
           <t>#ghemeen-staten</t>
         </is>
       </c>
-      <c r="C62" t="inlineStr">
+      <c r="C62" t="inlineStr"/>
+      <c r="D62" t="inlineStr">
         <is>
           <t>Ghemeen Staten</t>
         </is>
       </c>
-      <c r="D62" t="inlineStr"/>
       <c r="E62" t="inlineStr"/>
       <c r="F62" t="inlineStr"/>
       <c r="G62" t="inlineStr"/>
       <c r="H62" t="inlineStr"/>
+      <c r="I62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
@@ -1825,19 +1891,20 @@
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>#een-der-borgeren</t>
-        </is>
-      </c>
-      <c r="C63" t="inlineStr">
-        <is>
-          <t>Een der Borgeren</t>
-        </is>
-      </c>
-      <c r="D63" t="inlineStr"/>
+          <t>#ghemeynte</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr"/>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>Ghemeynte</t>
+        </is>
+      </c>
       <c r="E63" t="inlineStr"/>
       <c r="F63" t="inlineStr"/>
       <c r="G63" t="inlineStr"/>
       <c r="H63" t="inlineStr"/>
+      <c r="I63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
@@ -1847,19 +1914,20 @@
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>#adriaen</t>
-        </is>
-      </c>
-      <c r="C64" t="inlineStr">
-        <is>
-          <t>Adriaen</t>
-        </is>
-      </c>
-      <c r="D64" t="inlineStr"/>
+          <t>#t'gheld</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr"/>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>T'gheld</t>
+        </is>
+      </c>
       <c r="E64" t="inlineStr"/>
       <c r="F64" t="inlineStr"/>
       <c r="G64" t="inlineStr"/>
       <c r="H64" t="inlineStr"/>
+      <c r="I64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
@@ -1869,19 +1937,20 @@
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>#een-van-de-boeren</t>
-        </is>
-      </c>
-      <c r="C65" t="inlineStr">
-        <is>
-          <t>Een van de boeren</t>
-        </is>
-      </c>
-      <c r="D65" t="inlineStr"/>
+          <t>#bloed-dorst</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr"/>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>Bloed-dorst</t>
+        </is>
+      </c>
       <c r="E65" t="inlineStr"/>
       <c r="F65" t="inlineStr"/>
       <c r="G65" t="inlineStr"/>
       <c r="H65" t="inlineStr"/>
+      <c r="I65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
@@ -1891,19 +1960,20 @@
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>#capiteyn-logier</t>
-        </is>
-      </c>
-      <c r="C66" t="inlineStr">
-        <is>
-          <t>Capiteyn Logier</t>
-        </is>
-      </c>
-      <c r="D66" t="inlineStr"/>
+          <t>#geerards</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr"/>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>Geerards</t>
+        </is>
+      </c>
       <c r="E66" t="inlineStr"/>
       <c r="F66" t="inlineStr"/>
       <c r="G66" t="inlineStr"/>
       <c r="H66" t="inlineStr"/>
+      <c r="I66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
@@ -1913,19 +1983,20 @@
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>#gheveynsden-peys</t>
-        </is>
-      </c>
-      <c r="C67" t="inlineStr">
-        <is>
-          <t>Gheveynsden peys</t>
-        </is>
-      </c>
-      <c r="D67" t="inlineStr"/>
+          <t>#een-der-hoplieden</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr"/>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>Een der Hoplieden</t>
+        </is>
+      </c>
       <c r="E67" t="inlineStr"/>
       <c r="F67" t="inlineStr"/>
       <c r="G67" t="inlineStr"/>
       <c r="H67" t="inlineStr"/>
+      <c r="I67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
@@ -1935,19 +2006,20 @@
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>#de-borghermeester</t>
-        </is>
-      </c>
-      <c r="C68" t="inlineStr">
-        <is>
-          <t>De Borghermeester</t>
-        </is>
-      </c>
-      <c r="D68" t="inlineStr"/>
+          <t>#besluyt-reden-by-den-dicht-stelder</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr"/>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>Besluyt-reden by den Dicht-stelder</t>
+        </is>
+      </c>
       <c r="E68" t="inlineStr"/>
       <c r="F68" t="inlineStr"/>
       <c r="G68" t="inlineStr"/>
       <c r="H68" t="inlineStr"/>
+      <c r="I68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
@@ -1957,19 +2029,20 @@
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>#den-bode</t>
-        </is>
-      </c>
-      <c r="C69" t="inlineStr">
-        <is>
-          <t>Den Bode</t>
-        </is>
-      </c>
-      <c r="D69" t="inlineStr"/>
+          <t>#antvverpia</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr"/>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>Antvverpia</t>
+        </is>
+      </c>
       <c r="E69" t="inlineStr"/>
       <c r="F69" t="inlineStr"/>
       <c r="G69" t="inlineStr"/>
       <c r="H69" t="inlineStr"/>
+      <c r="I69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
@@ -1979,19 +2052,20 @@
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>#eerste-der-hoplieden-vander-stad</t>
-        </is>
-      </c>
-      <c r="C70" t="inlineStr">
-        <is>
-          <t>Eerste der Hoplieden vander Stad</t>
-        </is>
-      </c>
-      <c r="D70" t="inlineStr"/>
+          <t>#tvveede-der-borgheren</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr"/>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>Tvveede der Borgheren</t>
+        </is>
+      </c>
       <c r="E70" t="inlineStr"/>
       <c r="F70" t="inlineStr"/>
       <c r="G70" t="inlineStr"/>
       <c r="H70" t="inlineStr"/>
+      <c r="I70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
@@ -2001,19 +2075,20 @@
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>#tvveeden</t>
-        </is>
-      </c>
-      <c r="C71" t="inlineStr">
-        <is>
-          <t>Tvveeden</t>
-        </is>
-      </c>
-      <c r="D71" t="inlineStr"/>
+          <t>#quaet-regiment</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr"/>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>Quaet regiment</t>
+        </is>
+      </c>
       <c r="E71" t="inlineStr"/>
       <c r="F71" t="inlineStr"/>
       <c r="G71" t="inlineStr"/>
       <c r="H71" t="inlineStr"/>
+      <c r="I71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
@@ -2023,19 +2098,20 @@
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>#herrogeir</t>
-        </is>
-      </c>
-      <c r="C72" t="inlineStr">
-        <is>
-          <t>Herrogeir</t>
-        </is>
-      </c>
-      <c r="D72" t="inlineStr"/>
+          <t>#ghemeynen-man</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr"/>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>Ghemeynen man</t>
+        </is>
+      </c>
       <c r="E72" t="inlineStr"/>
       <c r="F72" t="inlineStr"/>
       <c r="G72" t="inlineStr"/>
       <c r="H72" t="inlineStr"/>
+      <c r="I72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
@@ -2045,19 +2121,20 @@
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>#d'ouerste-vande-vvacht</t>
-        </is>
-      </c>
-      <c r="C73" t="inlineStr">
-        <is>
-          <t>d'Ouerste vande VVacht</t>
-        </is>
-      </c>
-      <c r="D73" t="inlineStr"/>
+          <t>#den-landman</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr"/>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>Den Landman</t>
+        </is>
+      </c>
       <c r="E73" t="inlineStr"/>
       <c r="F73" t="inlineStr"/>
       <c r="G73" t="inlineStr"/>
       <c r="H73" t="inlineStr"/>
+      <c r="I73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
@@ -2067,19 +2144,20 @@
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>#de-knecht</t>
-        </is>
-      </c>
-      <c r="C74" t="inlineStr">
-        <is>
-          <t>De Knecht</t>
-        </is>
-      </c>
-      <c r="D74" t="inlineStr"/>
+          <t>#eersten</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr"/>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>Eersten</t>
+        </is>
+      </c>
       <c r="E74" t="inlineStr"/>
       <c r="F74" t="inlineStr"/>
       <c r="G74" t="inlineStr"/>
       <c r="H74" t="inlineStr"/>
+      <c r="I74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
@@ -2089,19 +2167,20 @@
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>#derden,-comt-uyt-ghecleed-als-een-duytsch-lants-knecht</t>
-        </is>
-      </c>
-      <c r="C75" t="inlineStr">
-        <is>
-          <t>Derden, comt uyt ghecleed als een Duytsch Lants-knecht</t>
-        </is>
-      </c>
-      <c r="D75" t="inlineStr"/>
+          <t>#capiteyn-lambert</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr"/>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>Capiteyn Lambert</t>
+        </is>
+      </c>
       <c r="E75" t="inlineStr"/>
       <c r="F75" t="inlineStr"/>
       <c r="G75" t="inlineStr"/>
       <c r="H75" t="inlineStr"/>
+      <c r="I75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
@@ -2111,19 +2190,20 @@
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>#de-prins-van-oraingnen</t>
-        </is>
-      </c>
-      <c r="C76" t="inlineStr">
-        <is>
-          <t>De Prins van Oraingnen</t>
-        </is>
-      </c>
-      <c r="D76" t="inlineStr"/>
+          <t>#carion-van-veers</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr"/>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>Carion van veers</t>
+        </is>
+      </c>
       <c r="E76" t="inlineStr"/>
       <c r="F76" t="inlineStr"/>
       <c r="G76" t="inlineStr"/>
       <c r="H76" t="inlineStr"/>
+      <c r="I76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
@@ -2133,19 +2213,20 @@
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>#derden</t>
-        </is>
-      </c>
-      <c r="C77" t="inlineStr">
-        <is>
-          <t>Derden</t>
-        </is>
-      </c>
-      <c r="D77" t="inlineStr"/>
+          <t>#lovvisa</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr"/>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>Lovvisa</t>
+        </is>
+      </c>
       <c r="E77" t="inlineStr"/>
       <c r="F77" t="inlineStr"/>
       <c r="G77" t="inlineStr"/>
       <c r="H77" t="inlineStr"/>
+      <c r="I77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
@@ -2155,19 +2236,20 @@
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>#den-derden-comt-vveer-uyt,-met-veel-goets-gheladen</t>
-        </is>
-      </c>
-      <c r="C78" t="inlineStr">
-        <is>
-          <t>Den Derden comt vveer uyt, met veel goets gheladen</t>
-        </is>
-      </c>
-      <c r="D78" t="inlineStr"/>
+          <t>#vvraeck-gierich-hert</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr"/>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>vvraeck-gierich hert</t>
+        </is>
+      </c>
       <c r="E78" t="inlineStr"/>
       <c r="F78" t="inlineStr"/>
       <c r="G78" t="inlineStr"/>
       <c r="H78" t="inlineStr"/>
+      <c r="I78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
@@ -2177,19 +2259,20 @@
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>#goede-ghemeynte</t>
-        </is>
-      </c>
-      <c r="C79" t="inlineStr">
-        <is>
-          <t>Goede Ghemeynte</t>
-        </is>
-      </c>
-      <c r="D79" t="inlineStr"/>
+          <t>#tvveeden</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr"/>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>Tvveeden</t>
+        </is>
+      </c>
       <c r="E79" t="inlineStr"/>
       <c r="F79" t="inlineStr"/>
       <c r="G79" t="inlineStr"/>
       <c r="H79" t="inlineStr"/>
+      <c r="I79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
@@ -2199,19 +2282,20 @@
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>#tvveede</t>
-        </is>
-      </c>
-      <c r="C80" t="inlineStr">
-        <is>
-          <t>Tvveede</t>
-        </is>
-      </c>
-      <c r="D80" t="inlineStr"/>
+          <t>#een-der-soldaten-roept-voor-en-d'ander-al-nae</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr"/>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>Een der Soldaten roept voor en d'ander al nae</t>
+        </is>
+      </c>
       <c r="E80" t="inlineStr"/>
       <c r="F80" t="inlineStr"/>
       <c r="G80" t="inlineStr"/>
       <c r="H80" t="inlineStr"/>
+      <c r="I80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
@@ -2221,19 +2305,20 @@
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>#den-landman</t>
-        </is>
-      </c>
-      <c r="C81" t="inlineStr">
-        <is>
-          <t>Den Landman</t>
-        </is>
-      </c>
-      <c r="D81" t="inlineStr"/>
+          <t>#een-van-de-draghers</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr"/>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>Een van de Draghers</t>
+        </is>
+      </c>
       <c r="E81" t="inlineStr"/>
       <c r="F81" t="inlineStr"/>
       <c r="G81" t="inlineStr"/>
       <c r="H81" t="inlineStr"/>
+      <c r="I81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
@@ -2243,19 +2328,20 @@
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>#inquisitie</t>
-        </is>
-      </c>
-      <c r="C82" t="inlineStr">
-        <is>
-          <t>Inquisitie</t>
-        </is>
-      </c>
-      <c r="D82" t="inlineStr"/>
+          <t>#tvveede-der-borghermeesteren</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr"/>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>Tvveede der borghermeesteren</t>
+        </is>
+      </c>
       <c r="E82" t="inlineStr"/>
       <c r="F82" t="inlineStr"/>
       <c r="G82" t="inlineStr"/>
       <c r="H82" t="inlineStr"/>
+      <c r="I82" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
@@ -2265,19 +2351,20 @@
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>#eerste-der-hoplieden</t>
-        </is>
-      </c>
-      <c r="C83" t="inlineStr">
-        <is>
-          <t>Eerste der Hoplieden</t>
-        </is>
-      </c>
-      <c r="D83" t="inlineStr"/>
+          <t>#b</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr"/>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>b</t>
+        </is>
+      </c>
       <c r="E83" t="inlineStr"/>
       <c r="F83" t="inlineStr"/>
       <c r="G83" t="inlineStr"/>
       <c r="H83" t="inlineStr"/>
+      <c r="I83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
@@ -2287,19 +2374,20 @@
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>#tvveede-der-hoplieden,</t>
-        </is>
-      </c>
-      <c r="C84" t="inlineStr">
-        <is>
-          <t>Tvveede der Hoplieden,</t>
-        </is>
-      </c>
-      <c r="D84" t="inlineStr"/>
+          <t>#graeff-mauritz</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr"/>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>Graeff Mauritz</t>
+        </is>
+      </c>
       <c r="E84" t="inlineStr"/>
       <c r="F84" t="inlineStr"/>
       <c r="G84" t="inlineStr"/>
       <c r="H84" t="inlineStr"/>
+      <c r="I84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
@@ -2309,19 +2397,20 @@
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>#dander-kind</t>
-        </is>
-      </c>
-      <c r="C85" t="inlineStr">
-        <is>
-          <t>Dander Kind</t>
-        </is>
-      </c>
-      <c r="D85" t="inlineStr"/>
+          <t>#den-derden,-comt-uyt-costelijck-ghecleed-met-eenen-ionghen-achter-hem</t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr"/>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t>Den Derden, comt uyt costelijck ghecleed met eenen Ionghen achter hem</t>
+        </is>
+      </c>
       <c r="E85" t="inlineStr"/>
       <c r="F85" t="inlineStr"/>
       <c r="G85" t="inlineStr"/>
       <c r="H85" t="inlineStr"/>
+      <c r="I85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
@@ -2331,19 +2420,20 @@
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>#den-ionghen</t>
-        </is>
-      </c>
-      <c r="C86" t="inlineStr">
-        <is>
-          <t>Den Ionghen</t>
-        </is>
-      </c>
-      <c r="D86" t="inlineStr"/>
+          <t>#den-derden</t>
+        </is>
+      </c>
+      <c r="C86" t="inlineStr"/>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t>Den Derden</t>
+        </is>
+      </c>
       <c r="E86" t="inlineStr"/>
       <c r="F86" t="inlineStr"/>
       <c r="G86" t="inlineStr"/>
       <c r="H86" t="inlineStr"/>
+      <c r="I86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
@@ -2353,19 +2443,20 @@
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>#vander-does-aende-poorten-vander-stad</t>
-        </is>
-      </c>
-      <c r="C87" t="inlineStr">
-        <is>
-          <t>Vander Does aende poorten vander Stad</t>
-        </is>
-      </c>
-      <c r="D87" t="inlineStr"/>
+          <t>#besluyt-reden-by-den-dicht-stelder</t>
+        </is>
+      </c>
+      <c r="C87" t="inlineStr"/>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t>Besluyt-reden by den dicht-stelder</t>
+        </is>
+      </c>
       <c r="E87" t="inlineStr"/>
       <c r="F87" t="inlineStr"/>
       <c r="G87" t="inlineStr"/>
       <c r="H87" t="inlineStr"/>
+      <c r="I87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
@@ -2375,19 +2466,20 @@
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>#schoffierighe-begheerte</t>
-        </is>
-      </c>
-      <c r="C88" t="inlineStr">
-        <is>
-          <t>Schoffierighe begheerte</t>
-        </is>
-      </c>
-      <c r="D88" t="inlineStr"/>
+          <t>#derden-der-borgheren</t>
+        </is>
+      </c>
+      <c r="C88" t="inlineStr"/>
+      <c r="D88" t="inlineStr">
+        <is>
+          <t>Derden der Borgheren</t>
+        </is>
+      </c>
       <c r="E88" t="inlineStr"/>
       <c r="F88" t="inlineStr"/>
       <c r="G88" t="inlineStr"/>
       <c r="H88" t="inlineStr"/>
+      <c r="I88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
@@ -2397,19 +2489,20 @@
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>#besluyt-reden-by-den-dicht-stelder</t>
-        </is>
-      </c>
-      <c r="C89" t="inlineStr">
-        <is>
-          <t>Besluyt-reden by den dicht-stelder</t>
-        </is>
-      </c>
-      <c r="D89" t="inlineStr"/>
+          <t>#vierden</t>
+        </is>
+      </c>
+      <c r="C89" t="inlineStr"/>
+      <c r="D89" t="inlineStr">
+        <is>
+          <t>Vierden</t>
+        </is>
+      </c>
       <c r="E89" t="inlineStr"/>
       <c r="F89" t="inlineStr"/>
       <c r="G89" t="inlineStr"/>
       <c r="H89" t="inlineStr"/>
+      <c r="I89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
@@ -2419,19 +2512,20 @@
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>#rijckdom</t>
-        </is>
-      </c>
-      <c r="C90" t="inlineStr">
-        <is>
-          <t>Rijckdom</t>
-        </is>
-      </c>
-      <c r="D90" t="inlineStr"/>
+          <t>#ghemeyne-staten</t>
+        </is>
+      </c>
+      <c r="C90" t="inlineStr"/>
+      <c r="D90" t="inlineStr">
+        <is>
+          <t>Ghemeyne Staten</t>
+        </is>
+      </c>
       <c r="E90" t="inlineStr"/>
       <c r="F90" t="inlineStr"/>
       <c r="G90" t="inlineStr"/>
       <c r="H90" t="inlineStr"/>
+      <c r="I90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
@@ -2441,19 +2535,20 @@
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>#de</t>
-        </is>
-      </c>
-      <c r="C91" t="inlineStr">
-        <is>
-          <t>De</t>
-        </is>
-      </c>
-      <c r="D91" t="inlineStr"/>
+          <t>#overicheyd</t>
+        </is>
+      </c>
+      <c r="C91" t="inlineStr"/>
+      <c r="D91" t="inlineStr">
+        <is>
+          <t>Overicheyd</t>
+        </is>
+      </c>
       <c r="E91" t="inlineStr"/>
       <c r="F91" t="inlineStr"/>
       <c r="G91" t="inlineStr"/>
       <c r="H91" t="inlineStr"/>
+      <c r="I91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
@@ -2463,19 +2558,20 @@
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>#perseus</t>
-        </is>
-      </c>
-      <c r="C92" t="inlineStr">
-        <is>
-          <t>Perseus</t>
-        </is>
-      </c>
-      <c r="D92" t="inlineStr"/>
+          <t>#trouvven-raed</t>
+        </is>
+      </c>
+      <c r="C92" t="inlineStr"/>
+      <c r="D92" t="inlineStr">
+        <is>
+          <t>Trouvven Raed</t>
+        </is>
+      </c>
       <c r="E92" t="inlineStr"/>
       <c r="F92" t="inlineStr"/>
       <c r="G92" t="inlineStr"/>
       <c r="H92" t="inlineStr"/>
+      <c r="I92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
@@ -2485,19 +2581,20 @@
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>#eenen-bode</t>
-        </is>
-      </c>
-      <c r="C93" t="inlineStr">
-        <is>
-          <t>Eenen Bode</t>
-        </is>
-      </c>
-      <c r="D93" t="inlineStr"/>
+          <t>#derden-der-borgheren</t>
+        </is>
+      </c>
+      <c r="C93" t="inlineStr"/>
+      <c r="D93" t="inlineStr">
+        <is>
+          <t>Derden der borgheren</t>
+        </is>
+      </c>
       <c r="E93" t="inlineStr"/>
       <c r="F93" t="inlineStr"/>
       <c r="G93" t="inlineStr"/>
       <c r="H93" t="inlineStr"/>
+      <c r="I93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
@@ -2507,19 +2604,20 @@
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>#carion</t>
-        </is>
-      </c>
-      <c r="C94" t="inlineStr">
-        <is>
-          <t>Carion</t>
-        </is>
-      </c>
-      <c r="D94" t="inlineStr"/>
+          <t>#inquisitie</t>
+        </is>
+      </c>
+      <c r="C94" t="inlineStr"/>
+      <c r="D94" t="inlineStr">
+        <is>
+          <t>Inquisitie</t>
+        </is>
+      </c>
       <c r="E94" t="inlineStr"/>
       <c r="F94" t="inlineStr"/>
       <c r="G94" t="inlineStr"/>
       <c r="H94" t="inlineStr"/>
+      <c r="I94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
@@ -2529,19 +2627,20 @@
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>#alonso-te-lammen</t>
-        </is>
-      </c>
-      <c r="C95" t="inlineStr">
-        <is>
-          <t>Alonso te Lammen</t>
-        </is>
-      </c>
-      <c r="D95" t="inlineStr"/>
+          <t>#de</t>
+        </is>
+      </c>
+      <c r="C95" t="inlineStr"/>
+      <c r="D95" t="inlineStr">
+        <is>
+          <t>De</t>
+        </is>
+      </c>
       <c r="E95" t="inlineStr"/>
       <c r="F95" t="inlineStr"/>
       <c r="G95" t="inlineStr"/>
       <c r="H95" t="inlineStr"/>
+      <c r="I95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
@@ -2551,19 +2650,20 @@
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>#een-der-soldaten-uyt-der-stad</t>
-        </is>
-      </c>
-      <c r="C96" t="inlineStr">
-        <is>
-          <t>Een der Soldaten uyt der Stad</t>
-        </is>
-      </c>
-      <c r="D96" t="inlineStr"/>
+          <t>#een-vande-boeren</t>
+        </is>
+      </c>
+      <c r="C96" t="inlineStr"/>
+      <c r="D96" t="inlineStr">
+        <is>
+          <t>Een vande Boeren</t>
+        </is>
+      </c>
       <c r="E96" t="inlineStr"/>
       <c r="F96" t="inlineStr"/>
       <c r="G96" t="inlineStr"/>
       <c r="H96" t="inlineStr"/>
+      <c r="I96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
@@ -2573,19 +2673,20 @@
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>#frevel</t>
-        </is>
-      </c>
-      <c r="C97" t="inlineStr">
-        <is>
-          <t>Frevel</t>
-        </is>
-      </c>
-      <c r="D97" t="inlineStr"/>
+          <t>#herrogier</t>
+        </is>
+      </c>
+      <c r="C97" t="inlineStr"/>
+      <c r="D97" t="inlineStr">
+        <is>
+          <t>Herrogier</t>
+        </is>
+      </c>
       <c r="E97" t="inlineStr"/>
       <c r="F97" t="inlineStr"/>
       <c r="G97" t="inlineStr"/>
       <c r="H97" t="inlineStr"/>
+      <c r="I97" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
@@ -2595,19 +2696,20 @@
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>#tvveede-der-borgermeesteren</t>
-        </is>
-      </c>
-      <c r="C98" t="inlineStr">
-        <is>
-          <t>Tvveede der Borgermeesteren</t>
-        </is>
-      </c>
-      <c r="D98" t="inlineStr"/>
+          <t>#hopman</t>
+        </is>
+      </c>
+      <c r="C98" t="inlineStr"/>
+      <c r="D98" t="inlineStr">
+        <is>
+          <t>Hopman</t>
+        </is>
+      </c>
       <c r="E98" t="inlineStr"/>
       <c r="F98" t="inlineStr"/>
       <c r="G98" t="inlineStr"/>
       <c r="H98" t="inlineStr"/>
+      <c r="I98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
@@ -2617,19 +2719,20 @@
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>#alonso</t>
-        </is>
-      </c>
-      <c r="C99" t="inlineStr">
-        <is>
-          <t>Alonso</t>
-        </is>
-      </c>
-      <c r="D99" t="inlineStr"/>
+          <t>#spaenschen-raed</t>
+        </is>
+      </c>
+      <c r="C99" t="inlineStr"/>
+      <c r="D99" t="inlineStr">
+        <is>
+          <t>Spaenschen Raed</t>
+        </is>
+      </c>
       <c r="E99" t="inlineStr"/>
       <c r="F99" t="inlineStr"/>
       <c r="G99" t="inlineStr"/>
       <c r="H99" t="inlineStr"/>
+      <c r="I99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
@@ -2639,19 +2742,20 @@
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>#heymelijcken-haed</t>
-        </is>
-      </c>
-      <c r="C100" t="inlineStr">
-        <is>
-          <t>Heymelijcken-haed</t>
-        </is>
-      </c>
-      <c r="D100" t="inlineStr"/>
+          <t>#de-borghermeester</t>
+        </is>
+      </c>
+      <c r="C100" t="inlineStr"/>
+      <c r="D100" t="inlineStr">
+        <is>
+          <t>De borghermeester</t>
+        </is>
+      </c>
       <c r="E100" t="inlineStr"/>
       <c r="F100" t="inlineStr"/>
       <c r="G100" t="inlineStr"/>
       <c r="H100" t="inlineStr"/>
+      <c r="I100" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
@@ -2661,19 +2765,20 @@
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>#lovvys-boysot</t>
-        </is>
-      </c>
-      <c r="C101" t="inlineStr">
-        <is>
-          <t>Lovvys Boysot</t>
-        </is>
-      </c>
-      <c r="D101" t="inlineStr"/>
+          <t>#de-knecht</t>
+        </is>
+      </c>
+      <c r="C101" t="inlineStr"/>
+      <c r="D101" t="inlineStr">
+        <is>
+          <t>De Knecht</t>
+        </is>
+      </c>
       <c r="E101" t="inlineStr"/>
       <c r="F101" t="inlineStr"/>
       <c r="G101" t="inlineStr"/>
       <c r="H101" t="inlineStr"/>
+      <c r="I101" t="inlineStr"/>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
@@ -2683,19 +2788,20 @@
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>#ghemeynen-man</t>
-        </is>
-      </c>
-      <c r="C102" t="inlineStr">
-        <is>
-          <t>Ghemeynen man</t>
-        </is>
-      </c>
-      <c r="D102" t="inlineStr"/>
+          <t>#tvveede-der-hoplieden</t>
+        </is>
+      </c>
+      <c r="C102" t="inlineStr"/>
+      <c r="D102" t="inlineStr">
+        <is>
+          <t>Tvveede der Hoplieden</t>
+        </is>
+      </c>
       <c r="E102" t="inlineStr"/>
       <c r="F102" t="inlineStr"/>
       <c r="G102" t="inlineStr"/>
       <c r="H102" t="inlineStr"/>
+      <c r="I102" t="inlineStr"/>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
@@ -2705,19 +2811,20 @@
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>#tvveede-der-borgheren</t>
-        </is>
-      </c>
-      <c r="C103" t="inlineStr">
-        <is>
-          <t>Tvveede der Borgheren</t>
-        </is>
-      </c>
-      <c r="D103" t="inlineStr"/>
+          <t>#eerste-der-borghermeesteren</t>
+        </is>
+      </c>
+      <c r="C103" t="inlineStr"/>
+      <c r="D103" t="inlineStr">
+        <is>
+          <t>Eerste der Borghermeesteren</t>
+        </is>
+      </c>
       <c r="E103" t="inlineStr"/>
       <c r="F103" t="inlineStr"/>
       <c r="G103" t="inlineStr"/>
       <c r="H103" t="inlineStr"/>
+      <c r="I103" t="inlineStr"/>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
@@ -2727,19 +2834,20 @@
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>#des-schippers-knecht</t>
-        </is>
-      </c>
-      <c r="C104" t="inlineStr">
-        <is>
-          <t>Des Schippers knecht</t>
-        </is>
-      </c>
-      <c r="D104" t="inlineStr"/>
+          <t>#den-poeet-oft-dichtstelder-beduydende-t'voorgaende</t>
+        </is>
+      </c>
+      <c r="C104" t="inlineStr"/>
+      <c r="D104" t="inlineStr">
+        <is>
+          <t>Den Poeet oft Dichtstelder beduydende t'voorgaende</t>
+        </is>
+      </c>
       <c r="E104" t="inlineStr"/>
       <c r="F104" t="inlineStr"/>
       <c r="G104" t="inlineStr"/>
       <c r="H104" t="inlineStr"/>
+      <c r="I104" t="inlineStr"/>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
@@ -2749,19 +2857,20 @@
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>#dencoopman</t>
-        </is>
-      </c>
-      <c r="C105" t="inlineStr">
-        <is>
-          <t>DenCoopman</t>
-        </is>
-      </c>
-      <c r="D105" t="inlineStr"/>
+          <t>#tvveede-en-derden-der-borgheren</t>
+        </is>
+      </c>
+      <c r="C105" t="inlineStr"/>
+      <c r="D105" t="inlineStr">
+        <is>
+          <t>Tvveede en Derden der Borgheren</t>
+        </is>
+      </c>
       <c r="E105" t="inlineStr"/>
       <c r="F105" t="inlineStr"/>
       <c r="G105" t="inlineStr"/>
       <c r="H105" t="inlineStr"/>
+      <c r="I105" t="inlineStr"/>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
@@ -2771,19 +2880,20 @@
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>#den-borgher</t>
-        </is>
-      </c>
-      <c r="C106" t="inlineStr">
-        <is>
-          <t>Den Borgher</t>
-        </is>
-      </c>
-      <c r="D106" t="inlineStr"/>
+          <t>#adriaen-van-borghen</t>
+        </is>
+      </c>
+      <c r="C106" t="inlineStr"/>
+      <c r="D106" t="inlineStr">
+        <is>
+          <t>Adriaen van Borghen</t>
+        </is>
+      </c>
       <c r="E106" t="inlineStr"/>
       <c r="F106" t="inlineStr"/>
       <c r="G106" t="inlineStr"/>
       <c r="H106" t="inlineStr"/>
+      <c r="I106" t="inlineStr"/>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
@@ -2793,19 +2903,20 @@
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>#trouvven-raed</t>
-        </is>
-      </c>
-      <c r="C107" t="inlineStr">
-        <is>
-          <t>Trouvven Raed</t>
-        </is>
-      </c>
-      <c r="D107" t="inlineStr"/>
+          <t>#tvveede-der-borghermeesteren</t>
+        </is>
+      </c>
+      <c r="C107" t="inlineStr"/>
+      <c r="D107" t="inlineStr">
+        <is>
+          <t>Tvveede der Borghermeesteren</t>
+        </is>
+      </c>
       <c r="E107" t="inlineStr"/>
       <c r="F107" t="inlineStr"/>
       <c r="G107" t="inlineStr"/>
       <c r="H107" t="inlineStr"/>
+      <c r="I107" t="inlineStr"/>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
@@ -2815,19 +2926,20 @@
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>#tvveede-der-borgermeesteren</t>
-        </is>
-      </c>
-      <c r="C108" t="inlineStr">
-        <is>
-          <t>Tvveede der borgermeesteren</t>
-        </is>
-      </c>
-      <c r="D108" t="inlineStr"/>
+          <t>#frevel</t>
+        </is>
+      </c>
+      <c r="C108" t="inlineStr"/>
+      <c r="D108" t="inlineStr">
+        <is>
+          <t>Frevel</t>
+        </is>
+      </c>
       <c r="E108" t="inlineStr"/>
       <c r="F108" t="inlineStr"/>
       <c r="G108" t="inlineStr"/>
       <c r="H108" t="inlineStr"/>
+      <c r="I108" t="inlineStr"/>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
@@ -2837,19 +2949,20 @@
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>#den-derden,-comt-uyt-costelijck-ghecleed-met-eenen-ionghen-achter-hem</t>
-        </is>
-      </c>
-      <c r="C109" t="inlineStr">
-        <is>
-          <t>Den Derden, comt uyt costelijck ghecleed met eenen Ionghen achter hem</t>
-        </is>
-      </c>
-      <c r="D109" t="inlineStr"/>
+          <t>#bloed-dorstich-ghemoed</t>
+        </is>
+      </c>
+      <c r="C109" t="inlineStr"/>
+      <c r="D109" t="inlineStr">
+        <is>
+          <t>Bloed-dorstich ghemoed</t>
+        </is>
+      </c>
       <c r="E109" t="inlineStr"/>
       <c r="F109" t="inlineStr"/>
       <c r="G109" t="inlineStr"/>
       <c r="H109" t="inlineStr"/>
+      <c r="I109" t="inlineStr"/>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr">
@@ -2859,19 +2972,20 @@
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>#adriaen-van-borghen</t>
-        </is>
-      </c>
-      <c r="C110" t="inlineStr">
-        <is>
-          <t>Adriaen van Borghen</t>
-        </is>
-      </c>
-      <c r="D110" t="inlineStr"/>
+          <t>#graeff-philips</t>
+        </is>
+      </c>
+      <c r="C110" t="inlineStr"/>
+      <c r="D110" t="inlineStr">
+        <is>
+          <t>Graeff Philips</t>
+        </is>
+      </c>
       <c r="E110" t="inlineStr"/>
       <c r="F110" t="inlineStr"/>
       <c r="G110" t="inlineStr"/>
       <c r="H110" t="inlineStr"/>
+      <c r="I110" t="inlineStr"/>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
@@ -2881,19 +2995,20 @@
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>#een-der-soldaten</t>
-        </is>
-      </c>
-      <c r="C111" t="inlineStr">
-        <is>
-          <t>Een der Soldaten</t>
-        </is>
-      </c>
-      <c r="D111" t="inlineStr"/>
+          <t>#den-bode</t>
+        </is>
+      </c>
+      <c r="C111" t="inlineStr"/>
+      <c r="D111" t="inlineStr">
+        <is>
+          <t>Den Bode</t>
+        </is>
+      </c>
       <c r="E111" t="inlineStr"/>
       <c r="F111" t="inlineStr"/>
       <c r="G111" t="inlineStr"/>
       <c r="H111" t="inlineStr"/>
+      <c r="I111" t="inlineStr"/>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr">
@@ -2903,19 +3018,20 @@
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>#tvveede-der-borghermeesteren</t>
-        </is>
-      </c>
-      <c r="C112" t="inlineStr">
-        <is>
-          <t>Tvveede der borghermeesteren</t>
-        </is>
-      </c>
-      <c r="D112" t="inlineStr"/>
+          <t>#de-sergeant</t>
+        </is>
+      </c>
+      <c r="C112" t="inlineStr"/>
+      <c r="D112" t="inlineStr">
+        <is>
+          <t>De Sergeant</t>
+        </is>
+      </c>
       <c r="E112" t="inlineStr"/>
       <c r="F112" t="inlineStr"/>
       <c r="G112" t="inlineStr"/>
       <c r="H112" t="inlineStr"/>
+      <c r="I112" t="inlineStr"/>
     </row>
     <row r="113">
       <c r="A113" t="inlineStr">
@@ -2925,19 +3041,20 @@
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>#carlon-inde-schants-by-boshuysen</t>
-        </is>
-      </c>
-      <c r="C113" t="inlineStr">
-        <is>
-          <t>Carlon inde Schants by Boshuysen</t>
-        </is>
-      </c>
-      <c r="D113" t="inlineStr"/>
+          <t>#ghemeene-staten</t>
+        </is>
+      </c>
+      <c r="C113" t="inlineStr"/>
+      <c r="D113" t="inlineStr">
+        <is>
+          <t>Ghemeene Staten</t>
+        </is>
+      </c>
       <c r="E113" t="inlineStr"/>
       <c r="F113" t="inlineStr"/>
       <c r="G113" t="inlineStr"/>
       <c r="H113" t="inlineStr"/>
+      <c r="I113" t="inlineStr"/>
     </row>
     <row r="114">
       <c r="A114" t="inlineStr">
@@ -2947,19 +3064,20 @@
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>#ghetrouvven-raed</t>
-        </is>
-      </c>
-      <c r="C114" t="inlineStr">
-        <is>
-          <t>Ghetrouvven Raed</t>
-        </is>
-      </c>
-      <c r="D114" t="inlineStr"/>
+          <t>#perseus</t>
+        </is>
+      </c>
+      <c r="C114" t="inlineStr"/>
+      <c r="D114" t="inlineStr">
+        <is>
+          <t>Perseus</t>
+        </is>
+      </c>
       <c r="E114" t="inlineStr"/>
       <c r="F114" t="inlineStr"/>
       <c r="G114" t="inlineStr"/>
       <c r="H114" t="inlineStr"/>
+      <c r="I114" t="inlineStr"/>
     </row>
     <row r="115">
       <c r="A115" t="inlineStr">
@@ -2969,19 +3087,20 @@
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>#een-der-hoplieden</t>
-        </is>
-      </c>
-      <c r="C115" t="inlineStr">
-        <is>
-          <t>Een der Hoplieden</t>
-        </is>
-      </c>
-      <c r="D115" t="inlineStr"/>
+          <t>#goeden-crijgh</t>
+        </is>
+      </c>
+      <c r="C115" t="inlineStr"/>
+      <c r="D115" t="inlineStr">
+        <is>
+          <t>Goeden Crijgh</t>
+        </is>
+      </c>
       <c r="E115" t="inlineStr"/>
       <c r="F115" t="inlineStr"/>
       <c r="G115" t="inlineStr"/>
       <c r="H115" t="inlineStr"/>
+      <c r="I115" t="inlineStr"/>
     </row>
     <row r="116">
       <c r="A116" t="inlineStr">
@@ -2991,19 +3110,20 @@
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>#t'gheld</t>
-        </is>
-      </c>
-      <c r="C116" t="inlineStr">
-        <is>
-          <t>T'gheld</t>
-        </is>
-      </c>
-      <c r="D116" t="inlineStr"/>
+          <t>#tvveede-der-borgeren</t>
+        </is>
+      </c>
+      <c r="C116" t="inlineStr"/>
+      <c r="D116" t="inlineStr">
+        <is>
+          <t>Tvveede der Borgeren</t>
+        </is>
+      </c>
       <c r="E116" t="inlineStr"/>
       <c r="F116" t="inlineStr"/>
       <c r="G116" t="inlineStr"/>
       <c r="H116" t="inlineStr"/>
+      <c r="I116" t="inlineStr"/>
     </row>
     <row r="117">
       <c r="A117" t="inlineStr">
@@ -3013,19 +3133,20 @@
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>#een-soldaet-opt-casteel</t>
-        </is>
-      </c>
-      <c r="C117" t="inlineStr">
-        <is>
-          <t>Een Soldaet opt Casteel</t>
-        </is>
-      </c>
-      <c r="D117" t="inlineStr"/>
+          <t>#heymelijcken-haed</t>
+        </is>
+      </c>
+      <c r="C117" t="inlineStr"/>
+      <c r="D117" t="inlineStr">
+        <is>
+          <t>Heymelijcken-haed</t>
+        </is>
+      </c>
       <c r="E117" t="inlineStr"/>
       <c r="F117" t="inlineStr"/>
       <c r="G117" t="inlineStr"/>
       <c r="H117" t="inlineStr"/>
+      <c r="I117" t="inlineStr"/>
     </row>
     <row r="118">
       <c r="A118" t="inlineStr">
@@ -3035,19 +3156,20 @@
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>#overicheyd</t>
-        </is>
-      </c>
-      <c r="C118" t="inlineStr">
-        <is>
-          <t>Overicheyd</t>
-        </is>
-      </c>
-      <c r="D118" t="inlineStr"/>
+          <t>#den-trommel-slagher</t>
+        </is>
+      </c>
+      <c r="C118" t="inlineStr"/>
+      <c r="D118" t="inlineStr">
+        <is>
+          <t>Den Trommel-slagher</t>
+        </is>
+      </c>
       <c r="E118" t="inlineStr"/>
       <c r="F118" t="inlineStr"/>
       <c r="G118" t="inlineStr"/>
       <c r="H118" t="inlineStr"/>
+      <c r="I118" t="inlineStr"/>
     </row>
     <row r="119">
       <c r="A119" t="inlineStr">
@@ -3057,19 +3179,20 @@
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>#een-der-borgheren</t>
-        </is>
-      </c>
-      <c r="C119" t="inlineStr">
-        <is>
-          <t>Een der borgheren</t>
-        </is>
-      </c>
-      <c r="D119" t="inlineStr"/>
+          <t>#rithmeester</t>
+        </is>
+      </c>
+      <c r="C119" t="inlineStr"/>
+      <c r="D119" t="inlineStr">
+        <is>
+          <t>Rithmeester</t>
+        </is>
+      </c>
       <c r="E119" t="inlineStr"/>
       <c r="F119" t="inlineStr"/>
       <c r="G119" t="inlineStr"/>
       <c r="H119" t="inlineStr"/>
+      <c r="I119" t="inlineStr"/>
     </row>
     <row r="120">
       <c r="A120" t="inlineStr">
@@ -3079,19 +3202,20 @@
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>#eerste.-der-crijchslieden</t>
-        </is>
-      </c>
-      <c r="C120" t="inlineStr">
-        <is>
-          <t>Eerste. der Crijchslieden</t>
-        </is>
-      </c>
-      <c r="D120" t="inlineStr"/>
+          <t>#eenen-pagie</t>
+        </is>
+      </c>
+      <c r="C120" t="inlineStr"/>
+      <c r="D120" t="inlineStr">
+        <is>
+          <t>Eenen Pagie</t>
+        </is>
+      </c>
       <c r="E120" t="inlineStr"/>
       <c r="F120" t="inlineStr"/>
       <c r="G120" t="inlineStr"/>
       <c r="H120" t="inlineStr"/>
+      <c r="I120" t="inlineStr"/>
     </row>
     <row r="121">
       <c r="A121" t="inlineStr">
@@ -3101,19 +3225,20 @@
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>#derden-der-borgheren</t>
-        </is>
-      </c>
-      <c r="C121" t="inlineStr">
-        <is>
-          <t>Derden der Borgheren</t>
-        </is>
-      </c>
-      <c r="D121" t="inlineStr"/>
+          <t>#herrogeir</t>
+        </is>
+      </c>
+      <c r="C121" t="inlineStr"/>
+      <c r="D121" t="inlineStr">
+        <is>
+          <t>Herrogeir</t>
+        </is>
+      </c>
       <c r="E121" t="inlineStr"/>
       <c r="F121" t="inlineStr"/>
       <c r="G121" t="inlineStr"/>
       <c r="H121" t="inlineStr"/>
+      <c r="I121" t="inlineStr"/>
     </row>
     <row r="122">
       <c r="A122" t="inlineStr">
@@ -3123,19 +3248,20 @@
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>#herrogier</t>
-        </is>
-      </c>
-      <c r="C122" t="inlineStr">
-        <is>
-          <t>Herrogier</t>
-        </is>
-      </c>
-      <c r="D122" t="inlineStr"/>
+          <t>#een-van-de-boeren</t>
+        </is>
+      </c>
+      <c r="C122" t="inlineStr"/>
+      <c r="D122" t="inlineStr">
+        <is>
+          <t>Een van de boeren</t>
+        </is>
+      </c>
       <c r="E122" t="inlineStr"/>
       <c r="F122" t="inlineStr"/>
       <c r="G122" t="inlineStr"/>
       <c r="H122" t="inlineStr"/>
+      <c r="I122" t="inlineStr"/>
     </row>
     <row r="123">
       <c r="A123" t="inlineStr">
@@ -3145,19 +3271,20 @@
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>#eerste-der-vrouvven</t>
-        </is>
-      </c>
-      <c r="C123" t="inlineStr">
-        <is>
-          <t>Eerste der Vrouvven</t>
-        </is>
-      </c>
-      <c r="D123" t="inlineStr"/>
+          <t>#gemeyne-staten</t>
+        </is>
+      </c>
+      <c r="C123" t="inlineStr"/>
+      <c r="D123" t="inlineStr">
+        <is>
+          <t>Gemeyne Staten</t>
+        </is>
+      </c>
       <c r="E123" t="inlineStr"/>
       <c r="F123" t="inlineStr"/>
       <c r="G123" t="inlineStr"/>
       <c r="H123" t="inlineStr"/>
+      <c r="I123" t="inlineStr"/>
     </row>
     <row r="124">
       <c r="A124" t="inlineStr">
@@ -3167,19 +3294,20 @@
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t>#vvraeck-gierich-hert</t>
-        </is>
-      </c>
-      <c r="C124" t="inlineStr">
-        <is>
-          <t>vvraeck-gierich hert</t>
-        </is>
-      </c>
-      <c r="D124" t="inlineStr"/>
+          <t>#besluyt-reden-des-dichtstelders,</t>
+        </is>
+      </c>
+      <c r="C124" t="inlineStr"/>
+      <c r="D124" t="inlineStr">
+        <is>
+          <t>Besluyt-reden des Dichtstelders,</t>
+        </is>
+      </c>
       <c r="E124" t="inlineStr"/>
       <c r="F124" t="inlineStr"/>
       <c r="G124" t="inlineStr"/>
       <c r="H124" t="inlineStr"/>
+      <c r="I124" t="inlineStr"/>
     </row>
     <row r="125">
       <c r="A125" t="inlineStr">
@@ -3189,19 +3317,20 @@
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>#den-hoofmeester</t>
-        </is>
-      </c>
-      <c r="C125" t="inlineStr">
-        <is>
-          <t>Den Hoofmeester</t>
-        </is>
-      </c>
-      <c r="D125" t="inlineStr"/>
+          <t>#capiteyn-logier</t>
+        </is>
+      </c>
+      <c r="C125" t="inlineStr"/>
+      <c r="D125" t="inlineStr">
+        <is>
+          <t>Capiteyn Logier</t>
+        </is>
+      </c>
       <c r="E125" t="inlineStr"/>
       <c r="F125" t="inlineStr"/>
       <c r="G125" t="inlineStr"/>
       <c r="H125" t="inlineStr"/>
+      <c r="I125" t="inlineStr"/>
     </row>
     <row r="126">
       <c r="A126" t="inlineStr">
@@ -3211,19 +3340,20 @@
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>#carion-van-veers</t>
-        </is>
-      </c>
-      <c r="C126" t="inlineStr">
-        <is>
-          <t>Carion van veers</t>
-        </is>
-      </c>
-      <c r="D126" t="inlineStr"/>
+          <t>#den-jonghen</t>
+        </is>
+      </c>
+      <c r="C126" t="inlineStr"/>
+      <c r="D126" t="inlineStr">
+        <is>
+          <t>Den Jonghen</t>
+        </is>
+      </c>
       <c r="E126" t="inlineStr"/>
       <c r="F126" t="inlineStr"/>
       <c r="G126" t="inlineStr"/>
       <c r="H126" t="inlineStr"/>
+      <c r="I126" t="inlineStr"/>
     </row>
     <row r="127">
       <c r="A127" t="inlineStr">
@@ -3233,19 +3363,20 @@
       </c>
       <c r="B127" t="inlineStr">
         <is>
-          <t>#spaenschen-raed</t>
-        </is>
-      </c>
-      <c r="C127" t="inlineStr">
-        <is>
-          <t>Spaenschen Raed</t>
-        </is>
-      </c>
-      <c r="D127" t="inlineStr"/>
+          <t>#dander-kind</t>
+        </is>
+      </c>
+      <c r="C127" t="inlineStr"/>
+      <c r="D127" t="inlineStr">
+        <is>
+          <t>Dander Kind</t>
+        </is>
+      </c>
       <c r="E127" t="inlineStr"/>
       <c r="F127" t="inlineStr"/>
       <c r="G127" t="inlineStr"/>
       <c r="H127" t="inlineStr"/>
+      <c r="I127" t="inlineStr"/>
     </row>
     <row r="128">
       <c r="A128" t="inlineStr">
@@ -3255,19 +3386,20 @@
       </c>
       <c r="B128" t="inlineStr">
         <is>
-          <t>#een-der-bootsghesellen</t>
-        </is>
-      </c>
-      <c r="C128" t="inlineStr">
-        <is>
-          <t>Een der bootsghesellen</t>
-        </is>
-      </c>
-      <c r="D128" t="inlineStr"/>
+          <t>#tweede-der-borgheren</t>
+        </is>
+      </c>
+      <c r="C128" t="inlineStr"/>
+      <c r="D128" t="inlineStr">
+        <is>
+          <t>Tweede der borgheren</t>
+        </is>
+      </c>
       <c r="E128" t="inlineStr"/>
       <c r="F128" t="inlineStr"/>
       <c r="G128" t="inlineStr"/>
       <c r="H128" t="inlineStr"/>
+      <c r="I128" t="inlineStr"/>
     </row>
     <row r="129">
       <c r="A129" t="inlineStr">
@@ -3277,19 +3409,20 @@
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t>#een-der-soldaten-roept-voor-en-d'ander-al-nae</t>
-        </is>
-      </c>
-      <c r="C129" t="inlineStr">
-        <is>
-          <t>Een der Soldaten roept voor en d'ander al nae</t>
-        </is>
-      </c>
-      <c r="D129" t="inlineStr"/>
+          <t>#den-vierden-der-borgheren</t>
+        </is>
+      </c>
+      <c r="C129" t="inlineStr"/>
+      <c r="D129" t="inlineStr">
+        <is>
+          <t>Den vierden der Borgheren</t>
+        </is>
+      </c>
       <c r="E129" t="inlineStr"/>
       <c r="F129" t="inlineStr"/>
       <c r="G129" t="inlineStr"/>
       <c r="H129" t="inlineStr"/>
+      <c r="I129" t="inlineStr"/>
     </row>
     <row r="130">
       <c r="A130" t="inlineStr">
@@ -3299,19 +3432,20 @@
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t>#tvveede-en-derden-der-borgheren</t>
-        </is>
-      </c>
-      <c r="C130" t="inlineStr">
-        <is>
-          <t>Tvveede en Derden der Borgheren</t>
-        </is>
-      </c>
-      <c r="D130" t="inlineStr"/>
+          <t>#een-soldaet-opt-casteel</t>
+        </is>
+      </c>
+      <c r="C130" t="inlineStr"/>
+      <c r="D130" t="inlineStr">
+        <is>
+          <t>Een Soldaet opt Casteel</t>
+        </is>
+      </c>
       <c r="E130" t="inlineStr"/>
       <c r="F130" t="inlineStr"/>
       <c r="G130" t="inlineStr"/>
       <c r="H130" t="inlineStr"/>
+      <c r="I130" t="inlineStr"/>
     </row>
     <row r="131">
       <c r="A131" t="inlineStr">
@@ -3321,19 +3455,20 @@
       </c>
       <c r="B131" t="inlineStr">
         <is>
-          <t>#tvveede-der-vrouvven</t>
-        </is>
-      </c>
-      <c r="C131" t="inlineStr">
-        <is>
-          <t>Tvveede der Vrouvven</t>
-        </is>
-      </c>
-      <c r="D131" t="inlineStr"/>
+          <t>#havicx</t>
+        </is>
+      </c>
+      <c r="C131" t="inlineStr"/>
+      <c r="D131" t="inlineStr">
+        <is>
+          <t>Havicx</t>
+        </is>
+      </c>
       <c r="E131" t="inlineStr"/>
       <c r="F131" t="inlineStr"/>
       <c r="G131" t="inlineStr"/>
       <c r="H131" t="inlineStr"/>
+      <c r="I131" t="inlineStr"/>
     </row>
     <row r="132">
       <c r="A132" t="inlineStr">
@@ -3343,19 +3478,20 @@
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t>#gods-stranghe-rechtvaerdicheyt</t>
-        </is>
-      </c>
-      <c r="C132" t="inlineStr">
-        <is>
-          <t>Gods stranghe rechtvaerdicheyt</t>
-        </is>
-      </c>
-      <c r="D132" t="inlineStr"/>
+          <t>#tvveede-der-borgeren</t>
+        </is>
+      </c>
+      <c r="C132" t="inlineStr"/>
+      <c r="D132" t="inlineStr">
+        <is>
+          <t>Tvveede der borgeren</t>
+        </is>
+      </c>
       <c r="E132" t="inlineStr"/>
       <c r="F132" t="inlineStr"/>
       <c r="G132" t="inlineStr"/>
       <c r="H132" t="inlineStr"/>
+      <c r="I132" t="inlineStr"/>
     </row>
     <row r="133">
       <c r="A133" t="inlineStr">
@@ -3365,19 +3501,20 @@
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t>#een-van-de-draghers</t>
-        </is>
-      </c>
-      <c r="C133" t="inlineStr">
-        <is>
-          <t>Een van de Draghers</t>
-        </is>
-      </c>
-      <c r="D133" t="inlineStr"/>
+          <t>#dencoopman</t>
+        </is>
+      </c>
+      <c r="C133" t="inlineStr"/>
+      <c r="D133" t="inlineStr">
+        <is>
+          <t>DenCoopman</t>
+        </is>
+      </c>
       <c r="E133" t="inlineStr"/>
       <c r="F133" t="inlineStr"/>
       <c r="G133" t="inlineStr"/>
       <c r="H133" t="inlineStr"/>
+      <c r="I133" t="inlineStr"/>
     </row>
     <row r="134">
       <c r="A134" t="inlineStr">
@@ -3387,19 +3524,20 @@
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t>#ghemeene-staten</t>
-        </is>
-      </c>
-      <c r="C134" t="inlineStr">
-        <is>
-          <t>Ghemeene Staten</t>
-        </is>
-      </c>
-      <c r="D134" t="inlineStr"/>
+          <t>#de-prins</t>
+        </is>
+      </c>
+      <c r="C134" t="inlineStr"/>
+      <c r="D134" t="inlineStr">
+        <is>
+          <t>De Prins</t>
+        </is>
+      </c>
       <c r="E134" t="inlineStr"/>
       <c r="F134" t="inlineStr"/>
       <c r="G134" t="inlineStr"/>
       <c r="H134" t="inlineStr"/>
+      <c r="I134" t="inlineStr"/>
     </row>
     <row r="135">
       <c r="A135" t="inlineStr">
@@ -3409,19 +3547,20 @@
       </c>
       <c r="B135" t="inlineStr">
         <is>
-          <t>#eerste-der-borgermeesteren</t>
-        </is>
-      </c>
-      <c r="C135" t="inlineStr">
-        <is>
-          <t>Eerste der borgermeesteren</t>
-        </is>
-      </c>
-      <c r="D135" t="inlineStr"/>
+          <t>#trouvven-raed</t>
+        </is>
+      </c>
+      <c r="C135" t="inlineStr"/>
+      <c r="D135" t="inlineStr">
+        <is>
+          <t>Trouvven raed</t>
+        </is>
+      </c>
       <c r="E135" t="inlineStr"/>
       <c r="F135" t="inlineStr"/>
       <c r="G135" t="inlineStr"/>
       <c r="H135" t="inlineStr"/>
+      <c r="I135" t="inlineStr"/>
     </row>
     <row r="136">
       <c r="A136" t="inlineStr">
@@ -3431,19 +3570,20 @@
       </c>
       <c r="B136" t="inlineStr">
         <is>
-          <t>#spaenschen-raed</t>
-        </is>
-      </c>
-      <c r="C136" t="inlineStr">
-        <is>
-          <t>Spaenschen-Raed</t>
-        </is>
-      </c>
-      <c r="D136" t="inlineStr"/>
+          <t>#adriaen</t>
+        </is>
+      </c>
+      <c r="C136" t="inlineStr"/>
+      <c r="D136" t="inlineStr">
+        <is>
+          <t>Adriaen</t>
+        </is>
+      </c>
       <c r="E136" t="inlineStr"/>
       <c r="F136" t="inlineStr"/>
       <c r="G136" t="inlineStr"/>
       <c r="H136" t="inlineStr"/>
+      <c r="I136" t="inlineStr"/>
     </row>
     <row r="137">
       <c r="A137" t="inlineStr">
@@ -3453,19 +3593,20 @@
       </c>
       <c r="B137" t="inlineStr">
         <is>
-          <t>#ghemeyne-staten</t>
-        </is>
-      </c>
-      <c r="C137" t="inlineStr">
-        <is>
-          <t>Ghemeyne Staten</t>
-        </is>
-      </c>
-      <c r="D137" t="inlineStr"/>
+          <t>#bode</t>
+        </is>
+      </c>
+      <c r="C137" t="inlineStr"/>
+      <c r="D137" t="inlineStr">
+        <is>
+          <t>Bode</t>
+        </is>
+      </c>
       <c r="E137" t="inlineStr"/>
       <c r="F137" t="inlineStr"/>
       <c r="G137" t="inlineStr"/>
       <c r="H137" t="inlineStr"/>
+      <c r="I137" t="inlineStr"/>
     </row>
     <row r="138">
       <c r="A138" t="inlineStr">
@@ -3475,19 +3616,20 @@
       </c>
       <c r="B138" t="inlineStr">
         <is>
-          <t>#tweede-der-borghermeesteren</t>
-        </is>
-      </c>
-      <c r="C138" t="inlineStr">
-        <is>
-          <t>Tweede der Borghermeesteren</t>
-        </is>
-      </c>
-      <c r="D138" t="inlineStr"/>
+          <t>#bloed-dorstich-ghemoed</t>
+        </is>
+      </c>
+      <c r="C138" t="inlineStr"/>
+      <c r="D138" t="inlineStr">
+        <is>
+          <t>bloed-dorstich ghemoed</t>
+        </is>
+      </c>
       <c r="E138" t="inlineStr"/>
       <c r="F138" t="inlineStr"/>
       <c r="G138" t="inlineStr"/>
       <c r="H138" t="inlineStr"/>
+      <c r="I138" t="inlineStr"/>
     </row>
     <row r="139">
       <c r="A139" t="inlineStr">
@@ -3497,19 +3639,20 @@
       </c>
       <c r="B139" t="inlineStr">
         <is>
-          <t>#gherards</t>
-        </is>
-      </c>
-      <c r="C139" t="inlineStr">
-        <is>
-          <t>Gherards</t>
-        </is>
-      </c>
-      <c r="D139" t="inlineStr"/>
+          <t>#carlon-inde-schants-by-boshuysen</t>
+        </is>
+      </c>
+      <c r="C139" t="inlineStr"/>
+      <c r="D139" t="inlineStr">
+        <is>
+          <t>Carlon inde Schants by Boshuysen</t>
+        </is>
+      </c>
       <c r="E139" t="inlineStr"/>
       <c r="F139" t="inlineStr"/>
       <c r="G139" t="inlineStr"/>
       <c r="H139" t="inlineStr"/>
+      <c r="I139" t="inlineStr"/>
     </row>
     <row r="140">
       <c r="A140" t="inlineStr">
@@ -3519,19 +3662,20 @@
       </c>
       <c r="B140" t="inlineStr">
         <is>
-          <t>#gemeyne-staten</t>
-        </is>
-      </c>
-      <c r="C140" t="inlineStr">
-        <is>
-          <t>Gemeyne Staten</t>
-        </is>
-      </c>
-      <c r="D140" t="inlineStr"/>
+          <t>#lambert</t>
+        </is>
+      </c>
+      <c r="C140" t="inlineStr"/>
+      <c r="D140" t="inlineStr">
+        <is>
+          <t>Lambert</t>
+        </is>
+      </c>
       <c r="E140" t="inlineStr"/>
       <c r="F140" t="inlineStr"/>
       <c r="G140" t="inlineStr"/>
       <c r="H140" t="inlineStr"/>
+      <c r="I140" t="inlineStr"/>
     </row>
     <row r="141">
       <c r="A141" t="inlineStr">
@@ -3541,19 +3685,20 @@
       </c>
       <c r="B141" t="inlineStr">
         <is>
-          <t>#vander-does</t>
-        </is>
-      </c>
-      <c r="C141" t="inlineStr">
-        <is>
-          <t>Vander Does</t>
-        </is>
-      </c>
-      <c r="D141" t="inlineStr"/>
+          <t>#tvveede</t>
+        </is>
+      </c>
+      <c r="C141" t="inlineStr"/>
+      <c r="D141" t="inlineStr">
+        <is>
+          <t>Tvveede</t>
+        </is>
+      </c>
       <c r="E141" t="inlineStr"/>
       <c r="F141" t="inlineStr"/>
       <c r="G141" t="inlineStr"/>
       <c r="H141" t="inlineStr"/>
+      <c r="I141" t="inlineStr"/>
     </row>
     <row r="142">
       <c r="A142" t="inlineStr">
@@ -3563,19 +3708,20 @@
       </c>
       <c r="B142" t="inlineStr">
         <is>
-          <t>#andromeda</t>
-        </is>
-      </c>
-      <c r="C142" t="inlineStr">
-        <is>
-          <t>Andromeda</t>
-        </is>
-      </c>
-      <c r="D142" t="inlineStr"/>
+          <t>#vander-does-aende-poorten-vander-stad</t>
+        </is>
+      </c>
+      <c r="C142" t="inlineStr"/>
+      <c r="D142" t="inlineStr">
+        <is>
+          <t>Vander Does aende poorten vander Stad</t>
+        </is>
+      </c>
       <c r="E142" t="inlineStr"/>
       <c r="F142" t="inlineStr"/>
       <c r="G142" t="inlineStr"/>
       <c r="H142" t="inlineStr"/>
+      <c r="I142" t="inlineStr"/>
     </row>
     <row r="143">
       <c r="A143" t="inlineStr">
@@ -3585,19 +3731,20 @@
       </c>
       <c r="B143" t="inlineStr">
         <is>
-          <t>#eerste-der-borgheren</t>
-        </is>
-      </c>
-      <c r="C143" t="inlineStr">
-        <is>
-          <t>Eerste der Borgheren</t>
-        </is>
-      </c>
-      <c r="D143" t="inlineStr"/>
+          <t>#rijckdom</t>
+        </is>
+      </c>
+      <c r="C143" t="inlineStr"/>
+      <c r="D143" t="inlineStr">
+        <is>
+          <t>Rijckdom</t>
+        </is>
+      </c>
       <c r="E143" t="inlineStr"/>
       <c r="F143" t="inlineStr"/>
       <c r="G143" t="inlineStr"/>
       <c r="H143" t="inlineStr"/>
+      <c r="I143" t="inlineStr"/>
     </row>
     <row r="144">
       <c r="A144" t="inlineStr">
@@ -3607,19 +3754,20 @@
       </c>
       <c r="B144" t="inlineStr">
         <is>
-          <t>#lovvisa</t>
-        </is>
-      </c>
-      <c r="C144" t="inlineStr">
-        <is>
-          <t>Lovvisa</t>
-        </is>
-      </c>
-      <c r="D144" t="inlineStr"/>
+          <t>#de-prins-van-oraingnen</t>
+        </is>
+      </c>
+      <c r="C144" t="inlineStr"/>
+      <c r="D144" t="inlineStr">
+        <is>
+          <t>De Prins van Oraingnen</t>
+        </is>
+      </c>
       <c r="E144" t="inlineStr"/>
       <c r="F144" t="inlineStr"/>
       <c r="G144" t="inlineStr"/>
       <c r="H144" t="inlineStr"/>
+      <c r="I144" t="inlineStr"/>
     </row>
     <row r="145">
       <c r="A145" t="inlineStr">
@@ -3629,19 +3777,20 @@
       </c>
       <c r="B145" t="inlineStr">
         <is>
-          <t>#bloed-dorst</t>
-        </is>
-      </c>
-      <c r="C145" t="inlineStr">
-        <is>
-          <t>Bloed-dorst</t>
-        </is>
-      </c>
-      <c r="D145" t="inlineStr"/>
+          <t>#tvveede-der-vrouvven</t>
+        </is>
+      </c>
+      <c r="C145" t="inlineStr"/>
+      <c r="D145" t="inlineStr">
+        <is>
+          <t>Tvveede der Vrouvven</t>
+        </is>
+      </c>
       <c r="E145" t="inlineStr"/>
       <c r="F145" t="inlineStr"/>
       <c r="G145" t="inlineStr"/>
       <c r="H145" t="inlineStr"/>
+      <c r="I145" t="inlineStr"/>
     </row>
     <row r="146">
       <c r="A146" t="inlineStr">
@@ -3651,19 +3800,20 @@
       </c>
       <c r="B146" t="inlineStr">
         <is>
-          <t>#rithmeester</t>
-        </is>
-      </c>
-      <c r="C146" t="inlineStr">
-        <is>
-          <t>Rithmeester</t>
-        </is>
-      </c>
-      <c r="D146" t="inlineStr"/>
+          <t>#den-hopman</t>
+        </is>
+      </c>
+      <c r="C146" t="inlineStr"/>
+      <c r="D146" t="inlineStr">
+        <is>
+          <t>Den Hopman</t>
+        </is>
+      </c>
       <c r="E146" t="inlineStr"/>
       <c r="F146" t="inlineStr"/>
       <c r="G146" t="inlineStr"/>
       <c r="H146" t="inlineStr"/>
+      <c r="I146" t="inlineStr"/>
     </row>
     <row r="147">
       <c r="A147" t="inlineStr">
@@ -3673,19 +3823,20 @@
       </c>
       <c r="B147" t="inlineStr">
         <is>
-          <t>#eerste-der-bootsghesellen</t>
-        </is>
-      </c>
-      <c r="C147" t="inlineStr">
-        <is>
-          <t>Eerste der bootsghesellen</t>
-        </is>
-      </c>
-      <c r="D147" t="inlineStr"/>
+          <t>#alonso-te-lammen</t>
+        </is>
+      </c>
+      <c r="C147" t="inlineStr"/>
+      <c r="D147" t="inlineStr">
+        <is>
+          <t>Alonso te Lammen</t>
+        </is>
+      </c>
       <c r="E147" t="inlineStr"/>
       <c r="F147" t="inlineStr"/>
       <c r="G147" t="inlineStr"/>
       <c r="H147" t="inlineStr"/>
+      <c r="I147" t="inlineStr"/>
     </row>
     <row r="148">
       <c r="A148" t="inlineStr">
@@ -3695,19 +3846,20 @@
       </c>
       <c r="B148" t="inlineStr">
         <is>
-          <t>#hopman</t>
-        </is>
-      </c>
-      <c r="C148" t="inlineStr">
-        <is>
-          <t>Hopman</t>
-        </is>
-      </c>
-      <c r="D148" t="inlineStr"/>
+          <t>#eerste-der-bootsghesellen</t>
+        </is>
+      </c>
+      <c r="C148" t="inlineStr"/>
+      <c r="D148" t="inlineStr">
+        <is>
+          <t>Eerste der bootsghesellen</t>
+        </is>
+      </c>
       <c r="E148" t="inlineStr"/>
       <c r="F148" t="inlineStr"/>
       <c r="G148" t="inlineStr"/>
       <c r="H148" t="inlineStr"/>
+      <c r="I148" t="inlineStr"/>
     </row>
     <row r="149">
       <c r="A149" t="inlineStr">
@@ -3717,19 +3869,20 @@
       </c>
       <c r="B149" t="inlineStr">
         <is>
-          <t>#zvvartsenburch</t>
-        </is>
-      </c>
-      <c r="C149" t="inlineStr">
-        <is>
-          <t>Zvvartsenburch</t>
-        </is>
-      </c>
-      <c r="D149" t="inlineStr"/>
+          <t>#tvveede-der-hoplieden,</t>
+        </is>
+      </c>
+      <c r="C149" t="inlineStr"/>
+      <c r="D149" t="inlineStr">
+        <is>
+          <t>Tvveede der Hoplieden,</t>
+        </is>
+      </c>
       <c r="E149" t="inlineStr"/>
       <c r="F149" t="inlineStr"/>
       <c r="G149" t="inlineStr"/>
       <c r="H149" t="inlineStr"/>
+      <c r="I149" t="inlineStr"/>
     </row>
     <row r="150">
       <c r="A150" t="inlineStr">
@@ -3739,19 +3892,20 @@
       </c>
       <c r="B150" t="inlineStr">
         <is>
-          <t>#de-minne</t>
-        </is>
-      </c>
-      <c r="C150" t="inlineStr">
-        <is>
-          <t>De Minne</t>
-        </is>
-      </c>
-      <c r="D150" t="inlineStr"/>
+          <t>#zvvartsenburch</t>
+        </is>
+      </c>
+      <c r="C150" t="inlineStr"/>
+      <c r="D150" t="inlineStr">
+        <is>
+          <t>Zvvartsenburch</t>
+        </is>
+      </c>
       <c r="E150" t="inlineStr"/>
       <c r="F150" t="inlineStr"/>
       <c r="G150" t="inlineStr"/>
       <c r="H150" t="inlineStr"/>
+      <c r="I150" t="inlineStr"/>
     </row>
     <row r="151">
       <c r="A151" t="inlineStr">
@@ -3761,19 +3915,20 @@
       </c>
       <c r="B151" t="inlineStr">
         <is>
-          <t>#schaldis</t>
-        </is>
-      </c>
-      <c r="C151" t="inlineStr">
-        <is>
-          <t>Schaldis</t>
-        </is>
-      </c>
-      <c r="D151" t="inlineStr"/>
+          <t>#een-der-soldaten</t>
+        </is>
+      </c>
+      <c r="C151" t="inlineStr"/>
+      <c r="D151" t="inlineStr">
+        <is>
+          <t>Een der Soldaten</t>
+        </is>
+      </c>
       <c r="E151" t="inlineStr"/>
       <c r="F151" t="inlineStr"/>
       <c r="G151" t="inlineStr"/>
       <c r="H151" t="inlineStr"/>
+      <c r="I151" t="inlineStr"/>
     </row>
     <row r="152">
       <c r="A152" t="inlineStr">
@@ -3783,19 +3938,20 @@
       </c>
       <c r="B152" t="inlineStr">
         <is>
-          <t>#derde</t>
-        </is>
-      </c>
-      <c r="C152" t="inlineStr">
-        <is>
-          <t>Derde</t>
-        </is>
-      </c>
-      <c r="D152" t="inlineStr"/>
+          <t>#tvveede-der-borgermeesteren</t>
+        </is>
+      </c>
+      <c r="C152" t="inlineStr"/>
+      <c r="D152" t="inlineStr">
+        <is>
+          <t>Tvveede der Borgermeesteren</t>
+        </is>
+      </c>
       <c r="E152" t="inlineStr"/>
       <c r="F152" t="inlineStr"/>
       <c r="G152" t="inlineStr"/>
       <c r="H152" t="inlineStr"/>
+      <c r="I152" t="inlineStr"/>
     </row>
     <row r="153">
       <c r="A153" t="inlineStr">
@@ -3805,19 +3961,20 @@
       </c>
       <c r="B153" t="inlineStr">
         <is>
-          <t>#eenen-pagie</t>
-        </is>
-      </c>
-      <c r="C153" t="inlineStr">
-        <is>
-          <t>Eenen Pagie</t>
-        </is>
-      </c>
-      <c r="D153" t="inlineStr"/>
+          <t>#een-der-soldaten-uyt-der-stad</t>
+        </is>
+      </c>
+      <c r="C153" t="inlineStr"/>
+      <c r="D153" t="inlineStr">
+        <is>
+          <t>Een der Soldaten uyt der Stad</t>
+        </is>
+      </c>
       <c r="E153" t="inlineStr"/>
       <c r="F153" t="inlineStr"/>
       <c r="G153" t="inlineStr"/>
       <c r="H153" t="inlineStr"/>
+      <c r="I153" t="inlineStr"/>
     </row>
     <row r="154">
       <c r="A154" t="inlineStr">
@@ -3827,19 +3984,20 @@
       </c>
       <c r="B154" t="inlineStr">
         <is>
-          <t>#tvveede-der-hoplieden</t>
-        </is>
-      </c>
-      <c r="C154" t="inlineStr">
-        <is>
-          <t>Tvveede der Hoplieden</t>
-        </is>
-      </c>
-      <c r="D154" t="inlineStr"/>
+          <t>#tvveede-der-borgermeesteren</t>
+        </is>
+      </c>
+      <c r="C154" t="inlineStr"/>
+      <c r="D154" t="inlineStr">
+        <is>
+          <t>Tvveede der borgermeesteren</t>
+        </is>
+      </c>
       <c r="E154" t="inlineStr"/>
       <c r="F154" t="inlineStr"/>
       <c r="G154" t="inlineStr"/>
       <c r="H154" t="inlineStr"/>
+      <c r="I154" t="inlineStr"/>
     </row>
     <row r="155">
       <c r="A155" t="inlineStr">
@@ -3849,19 +4007,20 @@
       </c>
       <c r="B155" t="inlineStr">
         <is>
-          <t>#vierden</t>
-        </is>
-      </c>
-      <c r="C155" t="inlineStr">
-        <is>
-          <t>Vierden</t>
-        </is>
-      </c>
-      <c r="D155" t="inlineStr"/>
+          <t>#den-coopman</t>
+        </is>
+      </c>
+      <c r="C155" t="inlineStr"/>
+      <c r="D155" t="inlineStr">
+        <is>
+          <t>Den Coopman</t>
+        </is>
+      </c>
       <c r="E155" t="inlineStr"/>
       <c r="F155" t="inlineStr"/>
       <c r="G155" t="inlineStr"/>
       <c r="H155" t="inlineStr"/>
+      <c r="I155" t="inlineStr"/>
     </row>
     <row r="156">
       <c r="A156" t="inlineStr">
@@ -3871,19 +4030,20 @@
       </c>
       <c r="B156" t="inlineStr">
         <is>
-          <t>#tvveede-der-borgheren</t>
-        </is>
-      </c>
-      <c r="C156" t="inlineStr">
-        <is>
-          <t>Tvveede der borgheren</t>
-        </is>
-      </c>
-      <c r="D156" t="inlineStr"/>
+          <t>#de-vrijheyd</t>
+        </is>
+      </c>
+      <c r="C156" t="inlineStr"/>
+      <c r="D156" t="inlineStr">
+        <is>
+          <t>De Vrijheyd</t>
+        </is>
+      </c>
       <c r="E156" t="inlineStr"/>
       <c r="F156" t="inlineStr"/>
       <c r="G156" t="inlineStr"/>
       <c r="H156" t="inlineStr"/>
+      <c r="I156" t="inlineStr"/>
     </row>
     <row r="157">
       <c r="A157" t="inlineStr">
@@ -3893,19 +4053,20 @@
       </c>
       <c r="B157" t="inlineStr">
         <is>
-          <t>#t'ghemeyn-volck</t>
-        </is>
-      </c>
-      <c r="C157" t="inlineStr">
-        <is>
-          <t>t'Ghemeyn volck</t>
-        </is>
-      </c>
-      <c r="D157" t="inlineStr"/>
+          <t>#eerste-der-vrouvven</t>
+        </is>
+      </c>
+      <c r="C157" t="inlineStr"/>
+      <c r="D157" t="inlineStr">
+        <is>
+          <t>Eerste der Vrouvven</t>
+        </is>
+      </c>
       <c r="E157" t="inlineStr"/>
       <c r="F157" t="inlineStr"/>
       <c r="G157" t="inlineStr"/>
       <c r="H157" t="inlineStr"/>
+      <c r="I157" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
